--- a/logins.xlsx
+++ b/logins.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -687,9 +687,35 @@
         <v>2025/08/29, 02:19:01</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0721234561</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Sipho@2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Sipho</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Khumalo</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2021-04-29</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2025-08-29T02:20:06.140Z</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2025/08/29, 04:20:06</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -748,7 +774,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2453,9 +2479,111 @@
         <v>session_1756428958231_tp2vuiytf</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="B101">
+        <v>0.2</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Internet browsing via device ba4d7633...</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2025-08-29T02:09:04.067Z</v>
+      </c>
+      <c r="E101" t="str">
+        <v>session_1756426113064_lhnmdr81c</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="B102">
+        <v>0.2</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Internet browsing via device ba4d7633...</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2025-08-29T02:10:26.776Z</v>
+      </c>
+      <c r="E102" t="str">
+        <v>session_1756426113064_lhnmdr81c</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="B103">
+        <v>0.2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Internet browsing via device a8197ed1...</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2025-08-29T02:26:50.244Z</v>
+      </c>
+      <c r="E103" t="str">
+        <v>session_1756434410244_2qpm7ssdg</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="B104">
+        <v>0.2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Internet browsing via device a8197ed1...</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2025-08-29T03:01:42.368Z</v>
+      </c>
+      <c r="E104" t="str">
+        <v>session_1756434410244_2qpm7ssdg</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="B105">
+        <v>0.2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Internet browsing via device a8197ed1...</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2025-08-29T03:01:43.906Z</v>
+      </c>
+      <c r="E105" t="str">
+        <v>session_1756434410244_2qpm7ssdg</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="B106">
+        <v>0.2</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Internet browsing via device a8197ed1...</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2025-08-29T03:09:13.080Z</v>
+      </c>
+      <c r="E106" t="str">
+        <v>session_1756434410244_2qpm7ssdg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E106"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2510,7 +2638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5160,16 +5288,368 @@
         <v>2114030019e3d767e5ca347131546f1e</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>mew8vozx-je6zzh</v>
+      </c>
+      <c r="B62" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C62" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="D62" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v>2025-08-29T02:59:56.109Z</v>
+      </c>
+      <c r="K62" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <v>1e8a0c1f0156938d8428cf35f4068eed</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>mew8w27m-b13qya</v>
+      </c>
+      <c r="B63" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C63" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="D63" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v>2025-08-29T03:00:13.234Z</v>
+      </c>
+      <c r="K63" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <v>5175ceaec6e95b3ebbec47409a7965f2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>mew8w4p9-7ej7ri</v>
+      </c>
+      <c r="B64" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D64" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E64" t="str">
+        <v/>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I64" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2025-08-29T03:00:16.461Z</v>
+      </c>
+      <c r="K64" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <v>4bac602fe55e2047c6a8b3566b7ca2d3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>mew8wey5-d86qcc</v>
+      </c>
+      <c r="B65" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D65" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I65" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2025-08-29T03:00:29.741Z</v>
+      </c>
+      <c r="K65" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <v>9484a54a2f6a85532fb40ec7dc99cdfc</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>mew9qi5n-70h357</v>
+      </c>
+      <c r="B66" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D66" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I66" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2025-08-29T03:23:53.579Z</v>
+      </c>
+      <c r="K66" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <v>63567458623890102576d91ba624bbda</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>mew9qpmm-navg4o</v>
+      </c>
+      <c r="B67" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D67" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I67" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2025-08-29T03:24:03.262Z</v>
+      </c>
+      <c r="K67" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <v>f151eebef2a13d978ad00e269f507ee2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>mew9qvbl-i9mok6</v>
+      </c>
+      <c r="B68" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D68" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I68" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2025-08-29T03:24:10.641Z</v>
+      </c>
+      <c r="K68" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <v>007cfb814f96632d84916eeedd497041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>mewa0pqa-1mbe1i</v>
+      </c>
+      <c r="B69" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="D69" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="I69" t="str">
+        <v>ad-sequence</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2025-08-29T03:31:49.954Z</v>
+      </c>
+      <c r="K69" t="str">
+        <v>9d15118762dde208</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <v>1811525446302ef57a9d312c60e2b1ff</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U69"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5418,10 +5898,10 @@
         <v>2025-08-28T04:37:33.565Z</v>
       </c>
       <c r="G8" t="str">
-        <v>2025-08-29T01:33:15.661Z</v>
+        <v>2025-08-29T14:05:21.225Z</v>
       </c>
       <c r="H8">
-        <v>75342</v>
+        <v>120467</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -5750,9 +6230,41 @@
         <v>2bb496411ff4e84e54e2b55eb34153db</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>mew7mq7f-deg3fm</v>
+      </c>
+      <c r="B19" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2025-08-29T02:24:58.155Z</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2025-08-29T03:29:55.551Z</v>
+      </c>
+      <c r="H19">
+        <v>3897</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <v>ab89f0aaaadc6a7fdded15cdda13c78a</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5772,7 +6284,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7283,9 +7795,449 @@
         <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>mew7ghv5-shni9o</v>
+      </c>
+      <c r="B76" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C76" t="str">
+        <v>registration</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2025-08-29T02:20:06.583Z</v>
+      </c>
+      <c r="E76" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>mew7jmcr-kxwwy4</v>
+      </c>
+      <c r="B77" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C77" t="str">
+        <v>login</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2025-08-29T02:22:33.055Z</v>
+      </c>
+      <c r="E77" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>mew7jmzv-o7st6w</v>
+      </c>
+      <c r="B78" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C78" t="str">
+        <v>login</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2025-08-29T02:22:33.845Z</v>
+      </c>
+      <c r="E78" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>mew7jnpn-lmow34</v>
+      </c>
+      <c r="B79" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C79" t="str">
+        <v>login</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2025-08-29T02:22:34.810Z</v>
+      </c>
+      <c r="E79" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>mew7jpi1-16h38v</v>
+      </c>
+      <c r="B80" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C80" t="str">
+        <v>login</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2025-08-29T02:22:36.922Z</v>
+      </c>
+      <c r="E80" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>mew7jqbc-bon7mc</v>
+      </c>
+      <c r="B81" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C81" t="str">
+        <v>login</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2025-08-29T02:22:38.188Z</v>
+      </c>
+      <c r="E81" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>mew7jr8y-y5y5ds</v>
+      </c>
+      <c r="B82" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C82" t="str">
+        <v>login</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2025-08-29T02:22:39.356Z</v>
+      </c>
+      <c r="E82" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>mew7kklh-qjzdg4</v>
+      </c>
+      <c r="B83" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C83" t="str">
+        <v>login</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2025-08-29T02:23:17.334Z</v>
+      </c>
+      <c r="E83" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>mew7klrh-ilg5tk</v>
+      </c>
+      <c r="B84" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C84" t="str">
+        <v>login</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2025-08-29T02:23:18.765Z</v>
+      </c>
+      <c r="E84" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>mew7kmp4-6buk2i</v>
+      </c>
+      <c r="B85" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C85" t="str">
+        <v>login</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2025-08-29T02:23:20.088Z</v>
+      </c>
+      <c r="E85" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>mew7knz3-9gqpgd</v>
+      </c>
+      <c r="B86" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C86" t="str">
+        <v>login</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2025-08-29T02:23:21.606Z</v>
+      </c>
+      <c r="E86" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>mew7koz5-ceplt9</v>
+      </c>
+      <c r="B87" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C87" t="str">
+        <v>login</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2025-08-29T02:23:23.046Z</v>
+      </c>
+      <c r="E87" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>mew7qdow-d6ayzo</v>
+      </c>
+      <c r="B88" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C88" t="str">
+        <v>login</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2025-08-29T02:27:48.443Z</v>
+      </c>
+      <c r="E88" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>mew8q4rj-6f2f3n</v>
+      </c>
+      <c r="B89" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C89" t="str">
+        <v>login</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2025-08-29T02:55:36.342Z</v>
+      </c>
+      <c r="E89" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>mew96plm-b9iyk2</v>
+      </c>
+      <c r="B90" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C90" t="str">
+        <v>login</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2025-08-29T03:08:29.966Z</v>
+      </c>
+      <c r="E90" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>mew9k259-27e5v4</v>
+      </c>
+      <c r="B91" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="C91" t="str">
+        <v>login</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2025-08-29T03:18:52.679Z</v>
+      </c>
+      <c r="E91" t="str">
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Mozilla/5.0 (Linux; Android 10; MED-LX9 Build/HUAWEIMED-LX9; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.105 Mobile Safari/537.36</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>mewtn6zx-r85is5</v>
+      </c>
+      <c r="B92" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C92" t="str">
+        <v>login</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2025-08-29T12:41:09.996Z</v>
+      </c>
+      <c r="E92" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>mewtne5a-szrlay</v>
+      </c>
+      <c r="B93" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C93" t="str">
+        <v>login</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2025-08-29T12:41:18.186Z</v>
+      </c>
+      <c r="E93" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>mewtnhwc-vi3y4w</v>
+      </c>
+      <c r="B94" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C94" t="str">
+        <v>login</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2025-08-29T12:41:23.707Z</v>
+      </c>
+      <c r="E94" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>mewtnmkf-gd9jez</v>
+      </c>
+      <c r="B95" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C95" t="str">
+        <v>login</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2025-08-29T12:41:30.418Z</v>
+      </c>
+      <c r="E95" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>mewtnrec-lxk2xi</v>
+      </c>
+      <c r="B96" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C96" t="str">
+        <v>login</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2025-08-29T12:41:35.544Z</v>
+      </c>
+      <c r="E96" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>mewtnut4-u5eu0t</v>
+      </c>
+      <c r="B97" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="C97" t="str">
+        <v>login</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2025-08-29T12:41:41.941Z</v>
+      </c>
+      <c r="E97" t="str">
+        <v>10.5.48.94</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36 Edg/139.0.0.0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G75"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7318,7 +8270,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S827"/>
+  <dimension ref="A1:S893"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -31462,9 +32414,1923 @@
         <v/>
       </c>
     </row>
+    <row r="828">
+      <c r="A828" t="str">
+        <v>mew70mu0-xh5vuf</v>
+      </c>
+      <c r="B828" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C828" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D828" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E828" t="str">
+        <v>click</v>
+      </c>
+      <c r="F828">
+        <v>0</v>
+      </c>
+      <c r="G828" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H828" t="str">
+        <v>2025-08-29T02:07:47.115Z</v>
+      </c>
+      <c r="I828" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="str">
+        <v>mew721ee-64g9ks</v>
+      </c>
+      <c r="B829" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C829" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D829" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E829" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F829">
+        <v>6</v>
+      </c>
+      <c r="G829" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H829" t="str">
+        <v>2025-08-29T02:08:51.739Z</v>
+      </c>
+      <c r="I829" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="str">
+        <v>mew725sk-485l5x</v>
+      </c>
+      <c r="B830" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C830" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D830" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E830" t="str">
+        <v>view</v>
+      </c>
+      <c r="F830">
+        <v>0</v>
+      </c>
+      <c r="G830" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H830" t="str">
+        <v>2025-08-29T02:08:58.431Z</v>
+      </c>
+      <c r="I830" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="str">
+        <v>mew726px-dyb53v</v>
+      </c>
+      <c r="B831" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C831" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D831" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E831" t="str">
+        <v>click</v>
+      </c>
+      <c r="F831">
+        <v>1</v>
+      </c>
+      <c r="G831" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H831" t="str">
+        <v>2025-08-29T02:08:59.578Z</v>
+      </c>
+      <c r="I831" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="str">
+        <v>mew727nv-ngxv1m</v>
+      </c>
+      <c r="B832" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C832" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D832" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E832" t="str">
+        <v>click</v>
+      </c>
+      <c r="F832">
+        <v>0</v>
+      </c>
+      <c r="G832" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H832" t="str">
+        <v>2025-08-29T02:09:00.784Z</v>
+      </c>
+      <c r="I832" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="str">
+        <v>mew72fti-ai6x8m</v>
+      </c>
+      <c r="B833" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C833" t="str">
+        <v>sbusisosweetwell15@gmail.com</v>
+      </c>
+      <c r="D833" t="str">
+        <v>ba4d76330612da0271f42f4561250a7e</v>
+      </c>
+      <c r="E833" t="str">
+        <v>view</v>
+      </c>
+      <c r="F833">
+        <v>0</v>
+      </c>
+      <c r="G833" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H833" t="str">
+        <v>2025-08-29T02:09:11.250Z</v>
+      </c>
+      <c r="I833" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="str">
+        <v>mew7nmq8-k85r4k</v>
+      </c>
+      <c r="B834" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C834" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D834" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E834" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F834">
+        <v>0</v>
+      </c>
+      <c r="G834" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H834" t="str">
+        <v>2025-08-29T02:25:40.165Z</v>
+      </c>
+      <c r="I834" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="str">
+        <v>mew7no47-ggbhze</v>
+      </c>
+      <c r="B835" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C835" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D835" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E835" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F835">
+        <v>0</v>
+      </c>
+      <c r="G835" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H835" t="str">
+        <v>2025-08-29T02:25:41.890Z</v>
+      </c>
+      <c r="I835" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="str">
+        <v>mew7nop7-ieffzg</v>
+      </c>
+      <c r="B836" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C836" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D836" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E836" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F836">
+        <v>0</v>
+      </c>
+      <c r="G836" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H836" t="str">
+        <v>2025-08-29T02:25:42.710Z</v>
+      </c>
+      <c r="I836" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="str">
+        <v>mew7npiz-svla8u</v>
+      </c>
+      <c r="B837" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C837" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D837" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E837" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F837">
+        <v>0</v>
+      </c>
+      <c r="G837" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H837" t="str">
+        <v>2025-08-29T02:25:43.762Z</v>
+      </c>
+      <c r="I837" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="str">
+        <v>mew7nr31-qkg093</v>
+      </c>
+      <c r="B838" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C838" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D838" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E838" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F838">
+        <v>0</v>
+      </c>
+      <c r="G838" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H838" t="str">
+        <v>2025-08-29T02:25:45.677Z</v>
+      </c>
+      <c r="I838" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v>mew7nt4j-p40ep1</v>
+      </c>
+      <c r="B839" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C839" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D839" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E839" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F839">
+        <v>0</v>
+      </c>
+      <c r="G839" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H839" t="str">
+        <v>2025-08-29T02:25:48.443Z</v>
+      </c>
+      <c r="I839" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v>mew7nvcs-u1wrgo</v>
+      </c>
+      <c r="B840" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C840" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D840" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E840" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F840">
+        <v>0</v>
+      </c>
+      <c r="G840" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H840" t="str">
+        <v>2025-08-29T02:25:51.265Z</v>
+      </c>
+      <c r="I840" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v>mew7qzob-3ktner</v>
+      </c>
+      <c r="B841" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C841" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D841" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E841" t="str">
+        <v>view</v>
+      </c>
+      <c r="F841">
+        <v>0</v>
+      </c>
+      <c r="G841" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H841" t="str">
+        <v>2025-08-29T02:28:16.893Z</v>
+      </c>
+      <c r="I841" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>mew7relg-7fvq0o</v>
+      </c>
+      <c r="B842" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C842" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D842" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E842" t="str">
+        <v>click</v>
+      </c>
+      <c r="F842">
+        <v>19</v>
+      </c>
+      <c r="G842" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H842" t="str">
+        <v>2025-08-29T02:28:36.185Z</v>
+      </c>
+      <c r="I842" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>mew7rmhu-8wcez3</v>
+      </c>
+      <c r="B843" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C843" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D843" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E843" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F843">
+        <v>21</v>
+      </c>
+      <c r="G843" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H843" t="str">
+        <v>2025-08-29T02:28:46.341Z</v>
+      </c>
+      <c r="I843" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
+        <v>mew7rn9o-8w95g5</v>
+      </c>
+      <c r="B844" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C844" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D844" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E844" t="str">
+        <v>click</v>
+      </c>
+      <c r="F844">
+        <v>19</v>
+      </c>
+      <c r="G844" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H844" t="str">
+        <v>2025-08-29T02:28:47.461Z</v>
+      </c>
+      <c r="I844" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v>mew7ro2v-4h3jzv</v>
+      </c>
+      <c r="B845" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C845" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D845" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E845" t="str">
+        <v>click</v>
+      </c>
+      <c r="F845">
+        <v>20</v>
+      </c>
+      <c r="G845" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H845" t="str">
+        <v>2025-08-29T02:28:48.449Z</v>
+      </c>
+      <c r="I845" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v>mew7rvo0-8d3ny5</v>
+      </c>
+      <c r="B846" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C846" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D846" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E846" t="str">
+        <v>click</v>
+      </c>
+      <c r="F846">
+        <v>0</v>
+      </c>
+      <c r="G846" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H846" t="str">
+        <v>2025-08-29T02:28:58.257Z</v>
+      </c>
+      <c r="I846" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v>mew7uawv-14k9te</v>
+      </c>
+      <c r="B847" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C847" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D847" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E847" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F847">
+        <v>41</v>
+      </c>
+      <c r="G847" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H847" t="str">
+        <v>2025-08-29T02:30:51.448Z</v>
+      </c>
+      <c r="I847" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v>mew7ubdt-mmh4mj</v>
+      </c>
+      <c r="B848" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C848" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D848" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E848" t="str">
+        <v>click</v>
+      </c>
+      <c r="F848">
+        <v>0</v>
+      </c>
+      <c r="G848" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H848" t="str">
+        <v>2025-08-29T02:30:52.060Z</v>
+      </c>
+      <c r="I848" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v>mew7ucvd-in3261</v>
+      </c>
+      <c r="B849" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C849" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D849" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E849" t="str">
+        <v>click</v>
+      </c>
+      <c r="F849">
+        <v>0</v>
+      </c>
+      <c r="G849" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H849" t="str">
+        <v>2025-08-29T02:30:53.949Z</v>
+      </c>
+      <c r="I849" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v>mew7uk1i-pn3hfi</v>
+      </c>
+      <c r="B850" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C850" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D850" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E850" t="str">
+        <v>click</v>
+      </c>
+      <c r="F850">
+        <v>0</v>
+      </c>
+      <c r="G850" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H850" t="str">
+        <v>2025-08-29T02:31:03.198Z</v>
+      </c>
+      <c r="I850" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v>mew8ra8x-q07z5a</v>
+      </c>
+      <c r="B851" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C851" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D851" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E851" t="str">
+        <v>view</v>
+      </c>
+      <c r="F851">
+        <v>0</v>
+      </c>
+      <c r="G851" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H851" t="str">
+        <v>2025-08-29T02:56:30.205Z</v>
+      </c>
+      <c r="I851" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v>mew8rtuv-7dv4na</v>
+      </c>
+      <c r="B852" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C852" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D852" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E852" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F852">
+        <v>23</v>
+      </c>
+      <c r="G852" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H852" t="str">
+        <v>2025-08-29T02:56:55.505Z</v>
+      </c>
+      <c r="I852" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v>mew8s915-xov2bo</v>
+      </c>
+      <c r="B853" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C853" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D853" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E853" t="str">
+        <v>click</v>
+      </c>
+      <c r="F853">
+        <v>0</v>
+      </c>
+      <c r="G853" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H853" t="str">
+        <v>2025-08-29T02:57:15.190Z</v>
+      </c>
+      <c r="I853" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v>mew8sbqh-rrq31t</v>
+      </c>
+      <c r="B854" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C854" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D854" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E854" t="str">
+        <v>view</v>
+      </c>
+      <c r="F854">
+        <v>0</v>
+      </c>
+      <c r="G854" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H854" t="str">
+        <v>2025-08-29T02:57:18.789Z</v>
+      </c>
+      <c r="I854" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="str">
+        <v>mew8thwm-uft1kd</v>
+      </c>
+      <c r="B855" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C855" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D855" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E855" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F855">
+        <v>47</v>
+      </c>
+      <c r="G855" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H855" t="str">
+        <v>2025-08-29T02:58:13.450Z</v>
+      </c>
+      <c r="I855" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="str">
+        <v>mew8tin4-dh3xpy</v>
+      </c>
+      <c r="B856" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C856" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D856" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E856" t="str">
+        <v>click</v>
+      </c>
+      <c r="F856">
+        <v>0</v>
+      </c>
+      <c r="G856" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H856" t="str">
+        <v>2025-08-29T02:58:14.342Z</v>
+      </c>
+      <c r="I856" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="str">
+        <v>mew8tmvk-2e0ptt</v>
+      </c>
+      <c r="B857" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C857" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D857" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E857" t="str">
+        <v>view</v>
+      </c>
+      <c r="F857">
+        <v>0</v>
+      </c>
+      <c r="G857" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H857" t="str">
+        <v>2025-08-29T02:58:19.815Z</v>
+      </c>
+      <c r="I857" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="str">
+        <v>mew8u5d4-x2c39u</v>
+      </c>
+      <c r="B858" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C858" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D858" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E858" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F858">
+        <v>17</v>
+      </c>
+      <c r="G858" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H858" t="str">
+        <v>2025-08-29T02:58:43.744Z</v>
+      </c>
+      <c r="I858" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="str">
+        <v>mew8u61q-hsvi49</v>
+      </c>
+      <c r="B859" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C859" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D859" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E859" t="str">
+        <v>click</v>
+      </c>
+      <c r="F859">
+        <v>0</v>
+      </c>
+      <c r="G859" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H859" t="str">
+        <v>2025-08-29T02:58:44.710Z</v>
+      </c>
+      <c r="I859" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="str">
+        <v>mew8u6v3-03gm8b</v>
+      </c>
+      <c r="B860" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C860" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D860" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E860" t="str">
+        <v>view</v>
+      </c>
+      <c r="F860">
+        <v>0</v>
+      </c>
+      <c r="G860" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H860" t="str">
+        <v>2025-08-29T02:58:45.668Z</v>
+      </c>
+      <c r="I860" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="str">
+        <v>mew8u8sz-2lc3wj</v>
+      </c>
+      <c r="B861" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C861" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D861" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E861" t="str">
+        <v>click</v>
+      </c>
+      <c r="F861">
+        <v>8</v>
+      </c>
+      <c r="G861" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H861" t="str">
+        <v>2025-08-29T02:58:48.294Z</v>
+      </c>
+      <c r="I861" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="str">
+        <v>mew8ubkm-7x8xuw</v>
+      </c>
+      <c r="B862" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C862" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D862" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E862" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F862">
+        <v>12</v>
+      </c>
+      <c r="G862" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H862" t="str">
+        <v>2025-08-29T02:58:51.829Z</v>
+      </c>
+      <c r="I862" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="str">
+        <v>mew8ucbw-lwg6bd</v>
+      </c>
+      <c r="B863" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C863" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D863" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E863" t="str">
+        <v>click</v>
+      </c>
+      <c r="F863">
+        <v>0</v>
+      </c>
+      <c r="G863" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H863" t="str">
+        <v>2025-08-29T02:58:52.762Z</v>
+      </c>
+      <c r="I863" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="str">
+        <v>mew8ugeu-xebi65</v>
+      </c>
+      <c r="B864" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C864" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D864" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E864" t="str">
+        <v>view</v>
+      </c>
+      <c r="F864">
+        <v>0</v>
+      </c>
+      <c r="G864" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H864" t="str">
+        <v>2025-08-29T02:58:58.123Z</v>
+      </c>
+      <c r="I864" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="str">
+        <v>mew8upef-n9069n</v>
+      </c>
+      <c r="B865" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C865" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D865" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E865" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F865">
+        <v>15</v>
+      </c>
+      <c r="G865" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H865" t="str">
+        <v>2025-08-29T02:59:09.716Z</v>
+      </c>
+      <c r="I865" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="str">
+        <v>mew8utrj-qw1scp</v>
+      </c>
+      <c r="B866" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C866" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D866" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E866" t="str">
+        <v>click</v>
+      </c>
+      <c r="F866">
+        <v>20</v>
+      </c>
+      <c r="G866" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H866" t="str">
+        <v>2025-08-29T02:59:15.301Z</v>
+      </c>
+      <c r="I866" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="str">
+        <v>mew8v79y-9x5z9c</v>
+      </c>
+      <c r="B867" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C867" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D867" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E867" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F867">
+        <v>30</v>
+      </c>
+      <c r="G867" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H867" t="str">
+        <v>2025-08-29T02:59:32.707Z</v>
+      </c>
+      <c r="I867" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="str">
+        <v>mew8vodq-xzkdwy</v>
+      </c>
+      <c r="B868" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C868" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D868" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E868" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F868">
+        <v>60</v>
+      </c>
+      <c r="G868" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H868" t="str">
+        <v>2025-08-29T02:59:55.125Z</v>
+      </c>
+      <c r="I868" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="str">
+        <v>mew8vzrm-iuonyy</v>
+      </c>
+      <c r="B869" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C869" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D869" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E869" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F869">
+        <v>60</v>
+      </c>
+      <c r="G869" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H869" t="str">
+        <v>2025-08-29T03:00:08.241Z</v>
+      </c>
+      <c r="I869" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="str">
+        <v>mew94z84-yo2rpu</v>
+      </c>
+      <c r="B870" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C870" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D870" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E870" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F870">
+        <v>0</v>
+      </c>
+      <c r="G870" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H870" t="str">
+        <v>2025-08-29T03:07:09.105Z</v>
+      </c>
+      <c r="I870" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="str">
+        <v>mew950wl-y0kyf0</v>
+      </c>
+      <c r="B871" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C871" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D871" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E871" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F871">
+        <v>0</v>
+      </c>
+      <c r="G871" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H871" t="str">
+        <v>2025-08-29T03:07:11.294Z</v>
+      </c>
+      <c r="I871" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="str">
+        <v>mew951go-o434tt</v>
+      </c>
+      <c r="B872" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C872" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D872" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E872" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F872">
+        <v>0</v>
+      </c>
+      <c r="G872" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H872" t="str">
+        <v>2025-08-29T03:07:12.015Z</v>
+      </c>
+      <c r="I872" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="str">
+        <v>mew955j7-21prkp</v>
+      </c>
+      <c r="B873" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C873" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D873" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E873" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F873">
+        <v>0</v>
+      </c>
+      <c r="G873" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H873" t="str">
+        <v>2025-08-29T03:07:17.184Z</v>
+      </c>
+      <c r="I873" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="str">
+        <v>mew97xtm-p3u6tk</v>
+      </c>
+      <c r="B874" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C874" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D874" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E874" t="str">
+        <v>view</v>
+      </c>
+      <c r="F874">
+        <v>0</v>
+      </c>
+      <c r="G874" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H874" t="str">
+        <v>2025-08-29T03:09:27.208Z</v>
+      </c>
+      <c r="I874" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="str">
+        <v>mew98l7t-vkblfm</v>
+      </c>
+      <c r="B875" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C875" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D875" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E875" t="str">
+        <v>click</v>
+      </c>
+      <c r="F875">
+        <v>31</v>
+      </c>
+      <c r="G875" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H875" t="str">
+        <v>2025-08-29T03:09:57.573Z</v>
+      </c>
+      <c r="I875" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="str">
+        <v>mew999hs-nec6wz</v>
+      </c>
+      <c r="B876" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C876" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D876" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E876" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F876">
+        <v>40</v>
+      </c>
+      <c r="G876" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H876" t="str">
+        <v>2025-08-29T03:10:29.030Z</v>
+      </c>
+      <c r="I876" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="str">
+        <v>mew99d6b-ajrgw4</v>
+      </c>
+      <c r="B877" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C877" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D877" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E877" t="str">
+        <v>view</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+      <c r="G877" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H877" t="str">
+        <v>2025-08-29T03:10:33.793Z</v>
+      </c>
+      <c r="I877" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="str">
+        <v>mew9ahln-sfd92n</v>
+      </c>
+      <c r="B878" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C878" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D878" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E878" t="str">
+        <v>click</v>
+      </c>
+      <c r="F878">
+        <v>0</v>
+      </c>
+      <c r="G878" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H878" t="str">
+        <v>2025-08-29T03:11:26.091Z</v>
+      </c>
+      <c r="I878" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="str">
+        <v>mew9aif2-aogm2x</v>
+      </c>
+      <c r="B879" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C879" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D879" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E879" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F879">
+        <v>32</v>
+      </c>
+      <c r="G879" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H879" t="str">
+        <v>2025-08-29T03:11:27.227Z</v>
+      </c>
+      <c r="I879" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="str">
+        <v>mew9b88v-sc0x2x</v>
+      </c>
+      <c r="B880" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C880" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D880" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E880" t="str">
+        <v>view</v>
+      </c>
+      <c r="F880">
+        <v>0</v>
+      </c>
+      <c r="G880" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H880" t="str">
+        <v>2025-08-29T03:12:00.715Z</v>
+      </c>
+      <c r="I880" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="str">
+        <v>mew9ba1h-ulztux</v>
+      </c>
+      <c r="B881" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C881" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D881" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E881" t="str">
+        <v>click</v>
+      </c>
+      <c r="F881">
+        <v>3</v>
+      </c>
+      <c r="G881" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H881" t="str">
+        <v>2025-08-29T03:12:03.036Z</v>
+      </c>
+      <c r="I881" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="str">
+        <v>mew9bbip-wmnj47</v>
+      </c>
+      <c r="B882" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C882" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D882" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E882" t="str">
+        <v>click</v>
+      </c>
+      <c r="F882">
+        <v>3</v>
+      </c>
+      <c r="G882" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H882" t="str">
+        <v>2025-08-29T03:12:04.947Z</v>
+      </c>
+      <c r="I882" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="str">
+        <v>mew9bd41-2ffpyn</v>
+      </c>
+      <c r="B883" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C883" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D883" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E883" t="str">
+        <v>click</v>
+      </c>
+      <c r="F883">
+        <v>3</v>
+      </c>
+      <c r="G883" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H883" t="str">
+        <v>2025-08-29T03:12:06.902Z</v>
+      </c>
+      <c r="I883" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="str">
+        <v>mew9bvy7-8882fb</v>
+      </c>
+      <c r="B884" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C884" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D884" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E884" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F884">
+        <v>7</v>
+      </c>
+      <c r="G884" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H884" t="str">
+        <v>2025-08-29T03:12:31.428Z</v>
+      </c>
+      <c r="I884" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="str">
+        <v>mew9bwff-50gkpk</v>
+      </c>
+      <c r="B885" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C885" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D885" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E885" t="str">
+        <v>click</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+      <c r="G885" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H885" t="str">
+        <v>2025-08-29T03:12:32.101Z</v>
+      </c>
+      <c r="I885" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="str">
+        <v>mew9by2c-zuy3kx</v>
+      </c>
+      <c r="B886" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C886" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D886" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E886" t="str">
+        <v>view</v>
+      </c>
+      <c r="F886">
+        <v>0</v>
+      </c>
+      <c r="G886" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H886" t="str">
+        <v>2025-08-29T03:12:34.179Z</v>
+      </c>
+      <c r="I886" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="str">
+        <v>mew9qf0i-f8xw7x</v>
+      </c>
+      <c r="B887" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C887" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D887" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E887" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F887">
+        <v>0</v>
+      </c>
+      <c r="G887" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H887" t="str">
+        <v>2025-08-29T03:23:49.014Z</v>
+      </c>
+      <c r="I887" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="str">
+        <v>mew9qu97-0rlkmc</v>
+      </c>
+      <c r="B888" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C888" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D888" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E888" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F888">
+        <v>0</v>
+      </c>
+      <c r="G888" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H888" t="str">
+        <v>2025-08-29T03:24:09.105Z</v>
+      </c>
+      <c r="I888" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="str">
+        <v>mew9rvxr-3ltrw5</v>
+      </c>
+      <c r="B889" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C889" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D889" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E889" t="str">
+        <v>view</v>
+      </c>
+      <c r="F889">
+        <v>0</v>
+      </c>
+      <c r="G889" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H889" t="str">
+        <v>2025-08-29T03:24:57.921Z</v>
+      </c>
+      <c r="I889" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="str">
+        <v>mew9xd4w-a6why8</v>
+      </c>
+      <c r="B890" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C890" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D890" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E890" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F890">
+        <v>70</v>
+      </c>
+      <c r="G890" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H890" t="str">
+        <v>2025-08-29T03:29:13.369Z</v>
+      </c>
+      <c r="I890" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="str">
+        <v>mew9xfj8-aon62g</v>
+      </c>
+      <c r="B891" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C891" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D891" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E891" t="str">
+        <v>click</v>
+      </c>
+      <c r="F891">
+        <v>0</v>
+      </c>
+      <c r="G891" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H891" t="str">
+        <v>2025-08-29T03:29:16.491Z</v>
+      </c>
+      <c r="I891" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="str">
+        <v>mew9xrre-v0yyvo</v>
+      </c>
+      <c r="B892" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C892" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D892" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E892" t="str">
+        <v>click</v>
+      </c>
+      <c r="F892">
+        <v>70</v>
+      </c>
+      <c r="G892" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H892" t="str">
+        <v>2025-08-29T03:29:32.443Z</v>
+      </c>
+      <c r="I892" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="str">
+        <v>mewa0ov5-0bdoek</v>
+      </c>
+      <c r="B893" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C893" t="str">
+        <v>sipho@gmail.com</v>
+      </c>
+      <c r="D893" t="str">
+        <v>a8197ed1290741654683b68ba9743275</v>
+      </c>
+      <c r="E893" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+      <c r="G893" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H893" t="str">
+        <v>2025-08-29T03:31:48.608Z</v>
+      </c>
+      <c r="I893" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S827"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S893"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logins.xlsx
+++ b/logins.xlsx
@@ -2638,7 +2638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5640,9 +5640,185 @@
         <v>1811525446302ef57a9d312c60e2b1ff</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>mexa5av3-x33wfx</v>
+      </c>
+      <c r="B70" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="C70" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="D70" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E70" t="str">
+        <v/>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v>2025-08-29T20:23:10.143Z</v>
+      </c>
+      <c r="K70" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <v>c7cf917fb1a74d7a5ad234983e5b45ae</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>mexa8clv-ukr4ip</v>
+      </c>
+      <c r="B71" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="C71" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="D71" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v>2025-08-29T20:25:32.371Z</v>
+      </c>
+      <c r="K71" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <v>05fe805ca3057a187850e235188b66c7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>mexac8za-w6zr4m</v>
+      </c>
+      <c r="B72" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="C72" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="D72" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v>2025-08-29T20:28:34.294Z</v>
+      </c>
+      <c r="K72" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <v>52f495623dfc64acd4919d21fcc4d398</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>mexan95u-4ocetm</v>
+      </c>
+      <c r="B73" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="C73" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="D73" t="str">
+        <v>admin@isn.local</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="str">
+        <v>video-unlock</v>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v>2025-08-29T20:37:07.746Z</v>
+      </c>
+      <c r="K73" t="str">
+        <v>video_unlock</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <v>2c03fb890c3ad220a610d2082d96d74b</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U73"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8270,7 +8446,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S893"/>
+  <dimension ref="A1:S897"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34328,9 +34504,119 @@
         <v/>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" t="str">
+        <v>mexa53rh-zb42fu</v>
+      </c>
+      <c r="B894" t="str">
+        <v>test-ad-1</v>
+      </c>
+      <c r="C894" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="D894" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="E894" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F894">
+        <v>60</v>
+      </c>
+      <c r="H894" t="str">
+        <v>2025-08-29T20:23:00.314Z</v>
+      </c>
+      <c r="I894" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="str">
+        <v>mexa8brz-n32t5g</v>
+      </c>
+      <c r="B895" t="str">
+        <v>test-ad-1</v>
+      </c>
+      <c r="C895" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="D895" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="E895" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F895">
+        <v>60</v>
+      </c>
+      <c r="H895" t="str">
+        <v>2025-08-29T20:25:30.891Z</v>
+      </c>
+      <c r="I895" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="str">
+        <v>mexac8fp-s2xouy</v>
+      </c>
+      <c r="B896" t="str">
+        <v>test-ad-1</v>
+      </c>
+      <c r="C896" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="D896" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="E896" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F896">
+        <v>60</v>
+      </c>
+      <c r="G896" t="str">
+        <v>test-router</v>
+      </c>
+      <c r="H896" t="str">
+        <v>2025-08-29T20:28:33.412Z</v>
+      </c>
+      <c r="I896" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="str">
+        <v>mexan86y-gx9417</v>
+      </c>
+      <c r="B897" t="str">
+        <v>test-ad-1</v>
+      </c>
+      <c r="C897" t="str">
+        <v>tester@example.com</v>
+      </c>
+      <c r="D897" t="str">
+        <v>c1e416f80e00b61b2c5444ca35b1bc86</v>
+      </c>
+      <c r="E897" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F897">
+        <v>60</v>
+      </c>
+      <c r="G897" t="str">
+        <v>test-router</v>
+      </c>
+      <c r="H897" t="str">
+        <v>2025-08-29T20:37:06.249Z</v>
+      </c>
+      <c r="I897" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S893"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S897"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logins.xlsx
+++ b/logins.xlsx
@@ -8446,7 +8446,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S897"/>
+  <dimension ref="A1:S1068"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34614,9 +34614,4968 @@
         <v/>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" t="str">
+        <v>mexmcwtq-kng4nu</v>
+      </c>
+      <c r="B898" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C898" t="str">
+        <v/>
+      </c>
+      <c r="D898" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E898" t="str">
+        <v>click</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H898" t="str">
+        <v>2025-08-30T02:05:00.438Z</v>
+      </c>
+      <c r="I898" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="str">
+        <v>mexmcy32-59580l</v>
+      </c>
+      <c r="B899" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C899" t="str">
+        <v/>
+      </c>
+      <c r="D899" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E899" t="str">
+        <v>click</v>
+      </c>
+      <c r="F899">
+        <v>0</v>
+      </c>
+      <c r="G899" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H899" t="str">
+        <v>2025-08-30T02:05:02.067Z</v>
+      </c>
+      <c r="I899" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="str">
+        <v>mexmcz4g-x6dhvy</v>
+      </c>
+      <c r="B900" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C900" t="str">
+        <v/>
+      </c>
+      <c r="D900" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E900" t="str">
+        <v>click</v>
+      </c>
+      <c r="F900">
+        <v>0</v>
+      </c>
+      <c r="G900" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H900" t="str">
+        <v>2025-08-30T02:05:03.359Z</v>
+      </c>
+      <c r="I900" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="str">
+        <v>mexmczro-k6ajmt</v>
+      </c>
+      <c r="B901" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C901" t="str">
+        <v/>
+      </c>
+      <c r="D901" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E901" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F901">
+        <v>0</v>
+      </c>
+      <c r="G901" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H901" t="str">
+        <v>2025-08-30T02:05:04.251Z</v>
+      </c>
+      <c r="I901" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="str">
+        <v>mexmd0mq-cu5ix0</v>
+      </c>
+      <c r="B902" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C902" t="str">
+        <v/>
+      </c>
+      <c r="D902" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E902" t="str">
+        <v>click</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H902" t="str">
+        <v>2025-08-30T02:05:05.080Z</v>
+      </c>
+      <c r="I902" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="str">
+        <v>mexmd26z-5fkmpe</v>
+      </c>
+      <c r="B903" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C903" t="str">
+        <v/>
+      </c>
+      <c r="D903" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E903" t="str">
+        <v>click</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+      <c r="G903" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H903" t="str">
+        <v>2025-08-30T02:05:07.284Z</v>
+      </c>
+      <c r="I903" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="str">
+        <v>mexmd59z-3gpkdd</v>
+      </c>
+      <c r="B904" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C904" t="str">
+        <v/>
+      </c>
+      <c r="D904" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E904" t="str">
+        <v>click</v>
+      </c>
+      <c r="F904">
+        <v>0</v>
+      </c>
+      <c r="G904" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H904" t="str">
+        <v>2025-08-30T02:05:11.338Z</v>
+      </c>
+      <c r="I904" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="str">
+        <v>mexmd7m1-ni3shu</v>
+      </c>
+      <c r="B905" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C905" t="str">
+        <v/>
+      </c>
+      <c r="D905" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E905" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F905">
+        <v>0</v>
+      </c>
+      <c r="G905" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H905" t="str">
+        <v>2025-08-30T02:05:14.426Z</v>
+      </c>
+      <c r="I905" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="str">
+        <v>mexmjbrg-9mwyqq</v>
+      </c>
+      <c r="B906" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C906" t="str">
+        <v/>
+      </c>
+      <c r="D906" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E906" t="str">
+        <v>view</v>
+      </c>
+      <c r="F906">
+        <v>0</v>
+      </c>
+      <c r="G906" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H906" t="str">
+        <v>2025-08-30T02:09:59.745Z</v>
+      </c>
+      <c r="I906" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="str">
+        <v>mexmlln6-7lh16r</v>
+      </c>
+      <c r="B907" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C907" t="str">
+        <v/>
+      </c>
+      <c r="D907" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E907" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F907">
+        <v>90</v>
+      </c>
+      <c r="G907" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H907" t="str">
+        <v>2025-08-30T02:11:45.812Z</v>
+      </c>
+      <c r="I907" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="str">
+        <v>mexmlmc9-bbke37</v>
+      </c>
+      <c r="B908" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C908" t="str">
+        <v/>
+      </c>
+      <c r="D908" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E908" t="str">
+        <v>click</v>
+      </c>
+      <c r="F908">
+        <v>0</v>
+      </c>
+      <c r="G908" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H908" t="str">
+        <v>2025-08-30T02:11:46.741Z</v>
+      </c>
+      <c r="I908" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="str">
+        <v>mexmlrnd-avlg43</v>
+      </c>
+      <c r="B909" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C909" t="str">
+        <v/>
+      </c>
+      <c r="D909" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E909" t="str">
+        <v>view</v>
+      </c>
+      <c r="F909">
+        <v>0</v>
+      </c>
+      <c r="G909" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H909" t="str">
+        <v>2025-08-30T02:11:53.518Z</v>
+      </c>
+      <c r="I909" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="str">
+        <v>mexmn3rd-7kdykc</v>
+      </c>
+      <c r="B910" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C910" t="str">
+        <v/>
+      </c>
+      <c r="D910" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E910" t="str">
+        <v>view</v>
+      </c>
+      <c r="F910">
+        <v>0</v>
+      </c>
+      <c r="G910" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H910" t="str">
+        <v>2025-08-30T02:12:56.003Z</v>
+      </c>
+      <c r="I910" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="str">
+        <v>mexmp3r2-y1e3nz</v>
+      </c>
+      <c r="B911" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C911" t="str">
+        <v/>
+      </c>
+      <c r="D911" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E911" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F911">
+        <v>72</v>
+      </c>
+      <c r="G911" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H911" t="str">
+        <v>2025-08-30T02:14:29.276Z</v>
+      </c>
+      <c r="I911" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="str">
+        <v>mexmp47l-cgvl6b</v>
+      </c>
+      <c r="B912" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C912" t="str">
+        <v/>
+      </c>
+      <c r="D912" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E912" t="str">
+        <v>click</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H912" t="str">
+        <v>2025-08-30T02:14:29.879Z</v>
+      </c>
+      <c r="I912" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="str">
+        <v>mexmp7by-krzyob</v>
+      </c>
+      <c r="B913" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C913" t="str">
+        <v/>
+      </c>
+      <c r="D913" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E913" t="str">
+        <v>view</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H913" t="str">
+        <v>2025-08-30T02:14:33.915Z</v>
+      </c>
+      <c r="I913" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="str">
+        <v>mexmqlr2-z96uhm</v>
+      </c>
+      <c r="B914" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C914" t="str">
+        <v/>
+      </c>
+      <c r="D914" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E914" t="str">
+        <v>view</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H914" t="str">
+        <v>2025-08-30T02:15:39.280Z</v>
+      </c>
+      <c r="I914" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="str">
+        <v>mexmqmk0-wo4q78</v>
+      </c>
+      <c r="B915" t="str">
+        <v>img_https://picsum.photos/seed/isn3/800/450</v>
+      </c>
+      <c r="C915" t="str">
+        <v/>
+      </c>
+      <c r="D915" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E915" t="str">
+        <v>view</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="G915" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H915" t="str">
+        <v>2025-08-30T02:15:40.326Z</v>
+      </c>
+      <c r="I915" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="str">
+        <v>mexmqx13-ng983z</v>
+      </c>
+      <c r="B916" t="str">
+        <v>img_https://picsum.photos/seed/isn3/800/450</v>
+      </c>
+      <c r="C916" t="str">
+        <v/>
+      </c>
+      <c r="D916" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E916" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F916">
+        <v>13</v>
+      </c>
+      <c r="G916" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H916" t="str">
+        <v>2025-08-30T02:15:53.884Z</v>
+      </c>
+      <c r="I916" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="str">
+        <v>mexmqxjj-dud9g4</v>
+      </c>
+      <c r="B917" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C917" t="str">
+        <v/>
+      </c>
+      <c r="D917" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E917" t="str">
+        <v>click</v>
+      </c>
+      <c r="F917">
+        <v>0</v>
+      </c>
+      <c r="G917" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H917" t="str">
+        <v>2025-08-30T02:15:54.521Z</v>
+      </c>
+      <c r="I917" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="str">
+        <v>mexmqzqy-noz5vi</v>
+      </c>
+      <c r="B918" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C918" t="str">
+        <v/>
+      </c>
+      <c r="D918" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E918" t="str">
+        <v>view</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H918" t="str">
+        <v>2025-08-30T02:15:57.413Z</v>
+      </c>
+      <c r="I918" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="str">
+        <v>mexmr0pv-u2id8s</v>
+      </c>
+      <c r="B919" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C919" t="str">
+        <v/>
+      </c>
+      <c r="D919" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E919" t="str">
+        <v>click</v>
+      </c>
+      <c r="F919">
+        <v>2</v>
+      </c>
+      <c r="G919" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H919" t="str">
+        <v>2025-08-30T02:15:58.686Z</v>
+      </c>
+      <c r="I919" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="str">
+        <v>mexmr4p4-bpnulq</v>
+      </c>
+      <c r="B920" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C920" t="str">
+        <v/>
+      </c>
+      <c r="D920" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E920" t="str">
+        <v>click</v>
+      </c>
+      <c r="F920">
+        <v>9</v>
+      </c>
+      <c r="G920" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H920" t="str">
+        <v>2025-08-30T02:16:03.722Z</v>
+      </c>
+      <c r="I920" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="str">
+        <v>mexmr5c7-gi41fv</v>
+      </c>
+      <c r="B921" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C921" t="str">
+        <v/>
+      </c>
+      <c r="D921" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E921" t="str">
+        <v>click</v>
+      </c>
+      <c r="F921">
+        <v>9</v>
+      </c>
+      <c r="G921" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H921" t="str">
+        <v>2025-08-30T02:16:04.655Z</v>
+      </c>
+      <c r="I921" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="str">
+        <v>mexmr6yk-kclbd4</v>
+      </c>
+      <c r="B922" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C922" t="str">
+        <v/>
+      </c>
+      <c r="D922" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E922" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F922">
+        <v>11</v>
+      </c>
+      <c r="G922" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H922" t="str">
+        <v>2025-08-30T02:16:06.737Z</v>
+      </c>
+      <c r="I922" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="str">
+        <v>mexmr7mv-dz550d</v>
+      </c>
+      <c r="B923" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C923" t="str">
+        <v/>
+      </c>
+      <c r="D923" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E923" t="str">
+        <v>click</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H923" t="str">
+        <v>2025-08-30T02:16:07.624Z</v>
+      </c>
+      <c r="I923" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="str">
+        <v>mexmr8pf-jntbkn</v>
+      </c>
+      <c r="B924" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C924" t="str">
+        <v/>
+      </c>
+      <c r="D924" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E924" t="str">
+        <v>view</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H924" t="str">
+        <v>2025-08-30T02:16:09.034Z</v>
+      </c>
+      <c r="I924" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="str">
+        <v>mexmr9pi-pn2s98</v>
+      </c>
+      <c r="B925" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C925" t="str">
+        <v/>
+      </c>
+      <c r="D925" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E925" t="str">
+        <v>click</v>
+      </c>
+      <c r="F925">
+        <v>2</v>
+      </c>
+      <c r="G925" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H925" t="str">
+        <v>2025-08-30T02:16:10.336Z</v>
+      </c>
+      <c r="I925" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="str">
+        <v>mexmran3-1r1xgv</v>
+      </c>
+      <c r="B926" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C926" t="str">
+        <v/>
+      </c>
+      <c r="D926" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E926" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F926">
+        <v>4</v>
+      </c>
+      <c r="G926" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H926" t="str">
+        <v>2025-08-30T02:16:11.514Z</v>
+      </c>
+      <c r="I926" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="str">
+        <v>mexmrdho-2hk37k</v>
+      </c>
+      <c r="B927" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C927" t="str">
+        <v/>
+      </c>
+      <c r="D927" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E927" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F927">
+        <v>8</v>
+      </c>
+      <c r="G927" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H927" t="str">
+        <v>2025-08-30T02:16:15.239Z</v>
+      </c>
+      <c r="I927" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="str">
+        <v>mexmrg4d-qtj09i</v>
+      </c>
+      <c r="B928" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C928" t="str">
+        <v/>
+      </c>
+      <c r="D928" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E928" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F928">
+        <v>8</v>
+      </c>
+      <c r="G928" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H928" t="str">
+        <v>2025-08-30T02:16:18.647Z</v>
+      </c>
+      <c r="I928" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="str">
+        <v>mexmrgy1-8l4m07</v>
+      </c>
+      <c r="B929" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C929" t="str">
+        <v/>
+      </c>
+      <c r="D929" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E929" t="str">
+        <v>click</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+      <c r="G929" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H929" t="str">
+        <v>2025-08-30T02:16:19.663Z</v>
+      </c>
+      <c r="I929" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="str">
+        <v>mexmrhy4-t9jfs5</v>
+      </c>
+      <c r="B930" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C930" t="str">
+        <v/>
+      </c>
+      <c r="D930" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E930" t="str">
+        <v>view</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+      <c r="G930" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H930" t="str">
+        <v>2025-08-30T02:16:21.010Z</v>
+      </c>
+      <c r="I930" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="str">
+        <v>mexmrjsc-822gb8</v>
+      </c>
+      <c r="B931" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C931" t="str">
+        <v/>
+      </c>
+      <c r="D931" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E931" t="str">
+        <v>click</v>
+      </c>
+      <c r="F931">
+        <v>2</v>
+      </c>
+      <c r="G931" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H931" t="str">
+        <v>2025-08-30T02:16:23.349Z</v>
+      </c>
+      <c r="I931" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="str">
+        <v>mexmrkhm-2cw67r</v>
+      </c>
+      <c r="B932" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C932" t="str">
+        <v/>
+      </c>
+      <c r="D932" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E932" t="str">
+        <v>click</v>
+      </c>
+      <c r="F932">
+        <v>2</v>
+      </c>
+      <c r="G932" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H932" t="str">
+        <v>2025-08-30T02:16:24.307Z</v>
+      </c>
+      <c r="I932" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="str">
+        <v>mexmrwdi-yn5kgt</v>
+      </c>
+      <c r="B933" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C933" t="str">
+        <v/>
+      </c>
+      <c r="D933" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E933" t="str">
+        <v>click</v>
+      </c>
+      <c r="F933">
+        <v>14</v>
+      </c>
+      <c r="G933" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H933" t="str">
+        <v>2025-08-30T02:16:39.649Z</v>
+      </c>
+      <c r="I933" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="str">
+        <v>mexms04s-zhbqkn</v>
+      </c>
+      <c r="B934" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C934" t="str">
+        <v/>
+      </c>
+      <c r="D934" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E934" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F934">
+        <v>16</v>
+      </c>
+      <c r="G934" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H934" t="str">
+        <v>2025-08-30T02:16:44.548Z</v>
+      </c>
+      <c r="I934" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="str">
+        <v>mexms0pi-6mj6ss</v>
+      </c>
+      <c r="B935" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C935" t="str">
+        <v/>
+      </c>
+      <c r="D935" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E935" t="str">
+        <v>click</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H935" t="str">
+        <v>2025-08-30T02:16:45.330Z</v>
+      </c>
+      <c r="I935" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="str">
+        <v>mexms1la-4wr18b</v>
+      </c>
+      <c r="B936" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C936" t="str">
+        <v/>
+      </c>
+      <c r="D936" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E936" t="str">
+        <v>view</v>
+      </c>
+      <c r="F936">
+        <v>0</v>
+      </c>
+      <c r="G936" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H936" t="str">
+        <v>2025-08-30T02:16:46.439Z</v>
+      </c>
+      <c r="I936" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="str">
+        <v>mexms694-cjd0tc</v>
+      </c>
+      <c r="B937" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C937" t="str">
+        <v/>
+      </c>
+      <c r="D937" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E937" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F937">
+        <v>4</v>
+      </c>
+      <c r="G937" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H937" t="str">
+        <v>2025-08-30T02:16:52.490Z</v>
+      </c>
+      <c r="I937" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="str">
+        <v>mexms6zk-xbt5i8</v>
+      </c>
+      <c r="B938" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C938" t="str">
+        <v/>
+      </c>
+      <c r="D938" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E938" t="str">
+        <v>click</v>
+      </c>
+      <c r="F938">
+        <v>6</v>
+      </c>
+      <c r="G938" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H938" t="str">
+        <v>2025-08-30T02:16:53.464Z</v>
+      </c>
+      <c r="I938" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="str">
+        <v>mexms7hx-602qmn</v>
+      </c>
+      <c r="B939" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C939" t="str">
+        <v/>
+      </c>
+      <c r="D939" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E939" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F939">
+        <v>8</v>
+      </c>
+      <c r="G939" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H939" t="str">
+        <v>2025-08-30T02:16:54.083Z</v>
+      </c>
+      <c r="I939" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="str">
+        <v>mexmsa8z-3pau2d</v>
+      </c>
+      <c r="B940" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C940" t="str">
+        <v/>
+      </c>
+      <c r="D940" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E940" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F940">
+        <v>11</v>
+      </c>
+      <c r="G940" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H940" t="str">
+        <v>2025-08-30T02:16:57.690Z</v>
+      </c>
+      <c r="I940" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="str">
+        <v>mexmsijd-wsyy82</v>
+      </c>
+      <c r="B941" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C941" t="str">
+        <v/>
+      </c>
+      <c r="D941" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E941" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F941">
+        <v>15</v>
+      </c>
+      <c r="G941" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H941" t="str">
+        <v>2025-08-30T02:17:08.398Z</v>
+      </c>
+      <c r="I941" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="str">
+        <v>mexmti79-kz8x9l</v>
+      </c>
+      <c r="B942" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C942" t="str">
+        <v/>
+      </c>
+      <c r="D942" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E942" t="str">
+        <v>view</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
+      </c>
+      <c r="G942" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H942" t="str">
+        <v>2025-08-30T02:17:54.560Z</v>
+      </c>
+      <c r="I942" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="str">
+        <v>mexmtksj-6gepi2</v>
+      </c>
+      <c r="B943" t="str">
+        <v>img_https://picsum.photos/seed/isn2/800/450</v>
+      </c>
+      <c r="C943" t="str">
+        <v/>
+      </c>
+      <c r="D943" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E943" t="str">
+        <v>view</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H943" t="str">
+        <v>2025-08-30T02:17:57.975Z</v>
+      </c>
+      <c r="I943" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="str">
+        <v>mexmtlxr-3j9dh6</v>
+      </c>
+      <c r="B944" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C944" t="str">
+        <v/>
+      </c>
+      <c r="D944" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E944" t="str">
+        <v>view</v>
+      </c>
+      <c r="F944">
+        <v>0</v>
+      </c>
+      <c r="G944" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H944" t="str">
+        <v>2025-08-30T02:17:59.450Z</v>
+      </c>
+      <c r="I944" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="str">
+        <v>mexmtoqa-hxh6l3</v>
+      </c>
+      <c r="B945" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C945" t="str">
+        <v/>
+      </c>
+      <c r="D945" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E945" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F945">
+        <v>4</v>
+      </c>
+      <c r="G945" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H945" t="str">
+        <v>2025-08-30T02:18:03.115Z</v>
+      </c>
+      <c r="I945" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="str">
+        <v>mexmtrkz-67sums</v>
+      </c>
+      <c r="B946" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C946" t="str">
+        <v/>
+      </c>
+      <c r="D946" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E946" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F946">
+        <v>8</v>
+      </c>
+      <c r="G946" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H946" t="str">
+        <v>2025-08-30T02:18:06.748Z</v>
+      </c>
+      <c r="I946" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="str">
+        <v>mexmtx4u-p7egdh</v>
+      </c>
+      <c r="B947" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C947" t="str">
+        <v/>
+      </c>
+      <c r="D947" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E947" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F947">
+        <v>12</v>
+      </c>
+      <c r="G947" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H947" t="str">
+        <v>2025-08-30T02:18:13.629Z</v>
+      </c>
+      <c r="I947" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="str">
+        <v>mexmu472-tgbi3w</v>
+      </c>
+      <c r="B948" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C948" t="str">
+        <v/>
+      </c>
+      <c r="D948" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E948" t="str">
+        <v>view</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H948" t="str">
+        <v>2025-08-30T02:18:22.760Z</v>
+      </c>
+      <c r="I948" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="str">
+        <v>mexmub0i-ebfkki</v>
+      </c>
+      <c r="B949" t="str">
+        <v>img_https://picsum.photos/seed/isn2/800/450</v>
+      </c>
+      <c r="C949" t="str">
+        <v/>
+      </c>
+      <c r="D949" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E949" t="str">
+        <v>view</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H949" t="str">
+        <v>2025-08-30T02:18:31.670Z</v>
+      </c>
+      <c r="I949" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="str">
+        <v>mexmuf0n-2hhukc</v>
+      </c>
+      <c r="B950" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C950" t="str">
+        <v/>
+      </c>
+      <c r="D950" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E950" t="str">
+        <v>click</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H950" t="str">
+        <v>2025-08-30T02:18:36.550Z</v>
+      </c>
+      <c r="I950" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="str">
+        <v>mexmui9p-wrx7yr</v>
+      </c>
+      <c r="B951" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C951" t="str">
+        <v/>
+      </c>
+      <c r="D951" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E951" t="str">
+        <v>view</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+      <c r="G951" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H951" t="str">
+        <v>2025-08-30T02:18:41.073Z</v>
+      </c>
+      <c r="I951" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="str">
+        <v>mexmukgg-6j427q</v>
+      </c>
+      <c r="B952" t="str">
+        <v>img_https://picsum.photos/seed/isn2/800/450</v>
+      </c>
+      <c r="C952" t="str">
+        <v/>
+      </c>
+      <c r="D952" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E952" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F952">
+        <v>14</v>
+      </c>
+      <c r="G952" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H952" t="str">
+        <v>2025-08-30T02:18:44.021Z</v>
+      </c>
+      <c r="I952" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="str">
+        <v>mexmy1bs-7vxtcf</v>
+      </c>
+      <c r="B953" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C953" t="str">
+        <v/>
+      </c>
+      <c r="D953" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E953" t="str">
+        <v>view</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+      <c r="G953" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H953" t="str">
+        <v>2025-08-30T02:21:25.970Z</v>
+      </c>
+      <c r="I953" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="str">
+        <v>mexmy3mb-sg5ifu</v>
+      </c>
+      <c r="B954" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C954" t="str">
+        <v/>
+      </c>
+      <c r="D954" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E954" t="str">
+        <v>click</v>
+      </c>
+      <c r="F954">
+        <v>3</v>
+      </c>
+      <c r="G954" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H954" t="str">
+        <v>2025-08-30T02:21:28.972Z</v>
+      </c>
+      <c r="I954" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="str">
+        <v>mexn4zet-g3cxxb</v>
+      </c>
+      <c r="B955" t="str">
+        <v>vid_Sintel.mp4</v>
+      </c>
+      <c r="C955" t="str">
+        <v/>
+      </c>
+      <c r="D955" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E955" t="str">
+        <v>view</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H955" t="str">
+        <v>2025-08-30T02:26:50.171Z</v>
+      </c>
+      <c r="I955" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="str">
+        <v>mexn50aw-7vi8wj</v>
+      </c>
+      <c r="B956" t="str">
+        <v>img_https://picsum.photos/seed/isn1/800/450</v>
+      </c>
+      <c r="C956" t="str">
+        <v/>
+      </c>
+      <c r="D956" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E956" t="str">
+        <v>view</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H956" t="str">
+        <v>2025-08-30T02:26:51.253Z</v>
+      </c>
+      <c r="I956" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="str">
+        <v>mexn5b3p-j9w0xx</v>
+      </c>
+      <c r="B957" t="str">
+        <v>img_https://picsum.photos/seed/isn1/800/450</v>
+      </c>
+      <c r="C957" t="str">
+        <v/>
+      </c>
+      <c r="D957" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E957" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F957">
+        <v>12</v>
+      </c>
+      <c r="G957" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H957" t="str">
+        <v>2025-08-30T02:27:05.320Z</v>
+      </c>
+      <c r="I957" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="str">
+        <v>mexn5bix-jy923v</v>
+      </c>
+      <c r="B958" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C958" t="str">
+        <v/>
+      </c>
+      <c r="D958" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E958" t="str">
+        <v>click</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H958" t="str">
+        <v>2025-08-30T02:27:05.871Z</v>
+      </c>
+      <c r="I958" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="str">
+        <v>mexn5c1r-sq111d</v>
+      </c>
+      <c r="B959" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C959" t="str">
+        <v/>
+      </c>
+      <c r="D959" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E959" t="str">
+        <v>view</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+      <c r="G959" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H959" t="str">
+        <v>2025-08-30T02:27:06.511Z</v>
+      </c>
+      <c r="I959" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="str">
+        <v>mexn5kxx-xqei15</v>
+      </c>
+      <c r="B960" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C960" t="str">
+        <v/>
+      </c>
+      <c r="D960" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E960" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F960">
+        <v>10</v>
+      </c>
+      <c r="G960" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H960" t="str">
+        <v>2025-08-30T02:27:18.071Z</v>
+      </c>
+      <c r="I960" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="str">
+        <v>mexn5ljg-7em79t</v>
+      </c>
+      <c r="B961" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C961" t="str">
+        <v/>
+      </c>
+      <c r="D961" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E961" t="str">
+        <v>click</v>
+      </c>
+      <c r="F961">
+        <v>0</v>
+      </c>
+      <c r="G961" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H961" t="str">
+        <v>2025-08-30T02:27:18.817Z</v>
+      </c>
+      <c r="I961" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="str">
+        <v>mexn5meq-b17ei1</v>
+      </c>
+      <c r="B962" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C962" t="str">
+        <v/>
+      </c>
+      <c r="D962" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E962" t="str">
+        <v>view</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="G962" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H962" t="str">
+        <v>2025-08-30T02:27:19.972Z</v>
+      </c>
+      <c r="I962" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="str">
+        <v>mexn5pbe-gg7jxh</v>
+      </c>
+      <c r="B963" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C963" t="str">
+        <v/>
+      </c>
+      <c r="D963" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E963" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F963">
+        <v>4</v>
+      </c>
+      <c r="G963" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H963" t="str">
+        <v>2025-08-30T02:27:23.700Z</v>
+      </c>
+      <c r="I963" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="str">
+        <v>mexn5s64-t2olbe</v>
+      </c>
+      <c r="B964" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C964" t="str">
+        <v/>
+      </c>
+      <c r="D964" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E964" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F964">
+        <v>8</v>
+      </c>
+      <c r="G964" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H964" t="str">
+        <v>2025-08-30T02:27:27.442Z</v>
+      </c>
+      <c r="I964" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="str">
+        <v>mexn5wat-lc7yox</v>
+      </c>
+      <c r="B965" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C965" t="str">
+        <v/>
+      </c>
+      <c r="D965" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E965" t="str">
+        <v>click</v>
+      </c>
+      <c r="F965">
+        <v>9</v>
+      </c>
+      <c r="G965" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H965" t="str">
+        <v>2025-08-30T02:27:32.797Z</v>
+      </c>
+      <c r="I965" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="str">
+        <v>mexn5wzg-su5w0b</v>
+      </c>
+      <c r="B966" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C966" t="str">
+        <v/>
+      </c>
+      <c r="D966" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E966" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F966">
+        <v>10</v>
+      </c>
+      <c r="G966" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H966" t="str">
+        <v>2025-08-30T02:27:33.645Z</v>
+      </c>
+      <c r="I966" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="str">
+        <v>mexn5xeg-jshlq5</v>
+      </c>
+      <c r="B967" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C967" t="str">
+        <v/>
+      </c>
+      <c r="D967" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E967" t="str">
+        <v>click</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H967" t="str">
+        <v>2025-08-30T02:27:34.221Z</v>
+      </c>
+      <c r="I967" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="str">
+        <v>mexn5yyi-p6ye9y</v>
+      </c>
+      <c r="B968" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C968" t="str">
+        <v/>
+      </c>
+      <c r="D968" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E968" t="str">
+        <v>view</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H968" t="str">
+        <v>2025-08-30T02:27:36.188Z</v>
+      </c>
+      <c r="I968" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="str">
+        <v>mexn61zf-ur3ecq</v>
+      </c>
+      <c r="B969" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C969" t="str">
+        <v/>
+      </c>
+      <c r="D969" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E969" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F969">
+        <v>4</v>
+      </c>
+      <c r="G969" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H969" t="str">
+        <v>2025-08-30T02:27:40.153Z</v>
+      </c>
+      <c r="I969" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="str">
+        <v>mexn64tp-6lwraw</v>
+      </c>
+      <c r="B970" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C970" t="str">
+        <v/>
+      </c>
+      <c r="D970" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E970" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F970">
+        <v>8</v>
+      </c>
+      <c r="G970" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H970" t="str">
+        <v>2025-08-30T02:27:43.834Z</v>
+      </c>
+      <c r="I970" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="str">
+        <v>mexn679q-3kfrg8</v>
+      </c>
+      <c r="B971" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C971" t="str">
+        <v/>
+      </c>
+      <c r="D971" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E971" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F971">
+        <v>9</v>
+      </c>
+      <c r="G971" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H971" t="str">
+        <v>2025-08-30T02:27:46.959Z</v>
+      </c>
+      <c r="I971" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="str">
+        <v>mexn67xf-qh2np4</v>
+      </c>
+      <c r="B972" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C972" t="str">
+        <v/>
+      </c>
+      <c r="D972" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E972" t="str">
+        <v>click</v>
+      </c>
+      <c r="F972">
+        <v>0</v>
+      </c>
+      <c r="G972" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H972" t="str">
+        <v>2025-08-30T02:27:47.862Z</v>
+      </c>
+      <c r="I972" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="str">
+        <v>mexn68py-p1x4sv</v>
+      </c>
+      <c r="B973" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C973" t="str">
+        <v/>
+      </c>
+      <c r="D973" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E973" t="str">
+        <v>view</v>
+      </c>
+      <c r="F973">
+        <v>0</v>
+      </c>
+      <c r="G973" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H973" t="str">
+        <v>2025-08-30T02:27:48.851Z</v>
+      </c>
+      <c r="I973" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="str">
+        <v>mexn69yt-s6dr52</v>
+      </c>
+      <c r="B974" t="str">
+        <v>img_https://picsum.photos/seed/isn2/800/450</v>
+      </c>
+      <c r="C974" t="str">
+        <v/>
+      </c>
+      <c r="D974" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E974" t="str">
+        <v>view</v>
+      </c>
+      <c r="F974">
+        <v>0</v>
+      </c>
+      <c r="G974" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H974" t="str">
+        <v>2025-08-30T02:27:50.499Z</v>
+      </c>
+      <c r="I974" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="str">
+        <v>mexn6h0n-nil8q4</v>
+      </c>
+      <c r="B975" t="str">
+        <v>img_https://picsum.photos/seed/isn2/800/450</v>
+      </c>
+      <c r="C975" t="str">
+        <v/>
+      </c>
+      <c r="D975" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E975" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F975">
+        <v>12</v>
+      </c>
+      <c r="G975" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H975" t="str">
+        <v>2025-08-30T02:27:59.645Z</v>
+      </c>
+      <c r="I975" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="str">
+        <v>mexn6hrb-6eoq7g</v>
+      </c>
+      <c r="B976" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C976" t="str">
+        <v/>
+      </c>
+      <c r="D976" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E976" t="str">
+        <v>click</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H976" t="str">
+        <v>2025-08-30T02:28:00.569Z</v>
+      </c>
+      <c r="I976" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="str">
+        <v>mexn6k2k-jkyvlg</v>
+      </c>
+      <c r="B977" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C977" t="str">
+        <v/>
+      </c>
+      <c r="D977" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E977" t="str">
+        <v>view</v>
+      </c>
+      <c r="F977">
+        <v>0</v>
+      </c>
+      <c r="G977" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H977" t="str">
+        <v>2025-08-30T02:28:03.553Z</v>
+      </c>
+      <c r="I977" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="str">
+        <v>mexn6qwi-2j5kiy</v>
+      </c>
+      <c r="B978" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C978" t="str">
+        <v/>
+      </c>
+      <c r="D978" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E978" t="str">
+        <v>click</v>
+      </c>
+      <c r="F978">
+        <v>9</v>
+      </c>
+      <c r="G978" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H978" t="str">
+        <v>2025-08-30T02:28:12.431Z</v>
+      </c>
+      <c r="I978" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="str">
+        <v>mexn6rix-jr0fyl</v>
+      </c>
+      <c r="B979" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C979" t="str">
+        <v/>
+      </c>
+      <c r="D979" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E979" t="str">
+        <v>click</v>
+      </c>
+      <c r="F979">
+        <v>9</v>
+      </c>
+      <c r="G979" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H979" t="str">
+        <v>2025-08-30T02:28:13.194Z</v>
+      </c>
+      <c r="I979" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="str">
+        <v>mexn6soj-yj7up1</v>
+      </c>
+      <c r="B980" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C980" t="str">
+        <v/>
+      </c>
+      <c r="D980" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E980" t="str">
+        <v>click</v>
+      </c>
+      <c r="F980">
+        <v>9</v>
+      </c>
+      <c r="G980" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H980" t="str">
+        <v>2025-08-30T02:28:14.645Z</v>
+      </c>
+      <c r="I980" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="str">
+        <v>mexn6tyi-orc8rv</v>
+      </c>
+      <c r="B981" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C981" t="str">
+        <v/>
+      </c>
+      <c r="D981" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E981" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F981">
+        <v>11</v>
+      </c>
+      <c r="G981" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H981" t="str">
+        <v>2025-08-30T02:28:16.399Z</v>
+      </c>
+      <c r="I981" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="str">
+        <v>mexn6umg-xik07t</v>
+      </c>
+      <c r="B982" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C982" t="str">
+        <v/>
+      </c>
+      <c r="D982" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E982" t="str">
+        <v>click</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H982" t="str">
+        <v>2025-08-30T02:28:17.172Z</v>
+      </c>
+      <c r="I982" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="str">
+        <v>mexn6yz7-yglzfg</v>
+      </c>
+      <c r="B983" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C983" t="str">
+        <v/>
+      </c>
+      <c r="D983" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E983" t="str">
+        <v>view</v>
+      </c>
+      <c r="F983">
+        <v>0</v>
+      </c>
+      <c r="G983" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H983" t="str">
+        <v>2025-08-30T02:28:22.904Z</v>
+      </c>
+      <c r="I983" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="str">
+        <v>mexn796n-rxq2ce</v>
+      </c>
+      <c r="B984" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C984" t="str">
+        <v/>
+      </c>
+      <c r="D984" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E984" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F984">
+        <v>10</v>
+      </c>
+      <c r="G984" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H984" t="str">
+        <v>2025-08-30T02:28:36.142Z</v>
+      </c>
+      <c r="I984" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="str">
+        <v>mexn79qf-wdct5s</v>
+      </c>
+      <c r="B985" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C985" t="str">
+        <v/>
+      </c>
+      <c r="D985" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E985" t="str">
+        <v>click</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H985" t="str">
+        <v>2025-08-30T02:28:36.850Z</v>
+      </c>
+      <c r="I985" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="str">
+        <v>mexn7ajn-umothk</v>
+      </c>
+      <c r="B986" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C986" t="str">
+        <v/>
+      </c>
+      <c r="D986" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E986" t="str">
+        <v>view</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H986" t="str">
+        <v>2025-08-30T02:28:37.883Z</v>
+      </c>
+      <c r="I986" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="str">
+        <v>mexn7bfp-v8lpkp</v>
+      </c>
+      <c r="B987" t="str">
+        <v>img_https://picsum.photos/seed/isn3/800/450</v>
+      </c>
+      <c r="C987" t="str">
+        <v/>
+      </c>
+      <c r="D987" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E987" t="str">
+        <v>view</v>
+      </c>
+      <c r="F987">
+        <v>0</v>
+      </c>
+      <c r="G987" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H987" t="str">
+        <v>2025-08-30T02:28:39.060Z</v>
+      </c>
+      <c r="I987" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="str">
+        <v>mexn7s3w-88fmtv</v>
+      </c>
+      <c r="B988" t="str">
+        <v>img_https://picsum.photos/seed/isn3/800/450</v>
+      </c>
+      <c r="C988" t="str">
+        <v/>
+      </c>
+      <c r="D988" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E988" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F988">
+        <v>21</v>
+      </c>
+      <c r="G988" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H988" t="str">
+        <v>2025-08-30T02:29:00.667Z</v>
+      </c>
+      <c r="I988" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="str">
+        <v>mexn7t9z-sailag</v>
+      </c>
+      <c r="B989" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C989" t="str">
+        <v/>
+      </c>
+      <c r="D989" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E989" t="str">
+        <v>click</v>
+      </c>
+      <c r="F989">
+        <v>0</v>
+      </c>
+      <c r="G989" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H989" t="str">
+        <v>2025-08-30T02:29:02.156Z</v>
+      </c>
+      <c r="I989" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="str">
+        <v>mexn7ukz-mk4ood</v>
+      </c>
+      <c r="B990" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C990" t="str">
+        <v/>
+      </c>
+      <c r="D990" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E990" t="str">
+        <v>view</v>
+      </c>
+      <c r="F990">
+        <v>0</v>
+      </c>
+      <c r="G990" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H990" t="str">
+        <v>2025-08-30T02:29:03.871Z</v>
+      </c>
+      <c r="I990" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="str">
+        <v>mexn86m9-2sd8xg</v>
+      </c>
+      <c r="B991" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C991" t="str">
+        <v/>
+      </c>
+      <c r="D991" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E991" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F991">
+        <v>11</v>
+      </c>
+      <c r="G991" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H991" t="str">
+        <v>2025-08-30T02:29:19.460Z</v>
+      </c>
+      <c r="I991" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="str">
+        <v>mexn872v-n7b4c2</v>
+      </c>
+      <c r="B992" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C992" t="str">
+        <v/>
+      </c>
+      <c r="D992" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E992" t="str">
+        <v>click</v>
+      </c>
+      <c r="F992">
+        <v>0</v>
+      </c>
+      <c r="G992" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H992" t="str">
+        <v>2025-08-30T02:29:20.078Z</v>
+      </c>
+      <c r="I992" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="str">
+        <v>mexn87oh-hr2hnl</v>
+      </c>
+      <c r="B993" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C993" t="str">
+        <v/>
+      </c>
+      <c r="D993" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E993" t="str">
+        <v>view</v>
+      </c>
+      <c r="F993">
+        <v>0</v>
+      </c>
+      <c r="G993" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H993" t="str">
+        <v>2025-08-30T02:29:20.752Z</v>
+      </c>
+      <c r="I993" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="str">
+        <v>mexn8gad-qhog63</v>
+      </c>
+      <c r="B994" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C994" t="str">
+        <v/>
+      </c>
+      <c r="D994" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E994" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F994">
+        <v>9</v>
+      </c>
+      <c r="G994" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H994" t="str">
+        <v>2025-08-30T02:29:32.010Z</v>
+      </c>
+      <c r="I994" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="str">
+        <v>mexn8gs0-yf7hlo</v>
+      </c>
+      <c r="B995" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C995" t="str">
+        <v/>
+      </c>
+      <c r="D995" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E995" t="str">
+        <v>click</v>
+      </c>
+      <c r="F995">
+        <v>0</v>
+      </c>
+      <c r="G995" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H995" t="str">
+        <v>2025-08-30T02:29:32.642Z</v>
+      </c>
+      <c r="I995" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="str">
+        <v>mexn8h7a-68bdvj</v>
+      </c>
+      <c r="B996" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C996" t="str">
+        <v/>
+      </c>
+      <c r="D996" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E996" t="str">
+        <v>view</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H996" t="str">
+        <v>2025-08-30T02:29:33.184Z</v>
+      </c>
+      <c r="I996" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="str">
+        <v>mexn8o68-xg0byc</v>
+      </c>
+      <c r="B997" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C997" t="str">
+        <v/>
+      </c>
+      <c r="D997" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E997" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F997">
+        <v>11</v>
+      </c>
+      <c r="G997" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H997" t="str">
+        <v>2025-08-30T02:29:42.221Z</v>
+      </c>
+      <c r="I997" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="str">
+        <v>mexn8opb-jiy5fd</v>
+      </c>
+      <c r="B998" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C998" t="str">
+        <v/>
+      </c>
+      <c r="D998" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E998" t="str">
+        <v>click</v>
+      </c>
+      <c r="F998">
+        <v>0</v>
+      </c>
+      <c r="G998" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H998" t="str">
+        <v>2025-08-30T02:29:42.914Z</v>
+      </c>
+      <c r="I998" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="str">
+        <v>mexn8p4z-e381lv</v>
+      </c>
+      <c r="B999" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C999" t="str">
+        <v/>
+      </c>
+      <c r="D999" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E999" t="str">
+        <v>view</v>
+      </c>
+      <c r="F999">
+        <v>0</v>
+      </c>
+      <c r="G999" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H999" t="str">
+        <v>2025-08-30T02:29:43.479Z</v>
+      </c>
+      <c r="I999" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="str">
+        <v>mexn8rou-emg11d</v>
+      </c>
+      <c r="B1000" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1000" t="str">
+        <v/>
+      </c>
+      <c r="D1000" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1000" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1000">
+        <v>4</v>
+      </c>
+      <c r="G1000" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1000" t="str">
+        <v>2025-08-30T02:29:46.782Z</v>
+      </c>
+      <c r="I1000" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="str">
+        <v>mexn8vgr-1cpib2</v>
+      </c>
+      <c r="B1001" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1001" t="str">
+        <v/>
+      </c>
+      <c r="D1001" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1001" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F1001">
+        <v>8</v>
+      </c>
+      <c r="G1001" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1001" t="str">
+        <v>2025-08-30T02:29:51.533Z</v>
+      </c>
+      <c r="I1001" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="str">
+        <v>mexn8za5-g1wrt5</v>
+      </c>
+      <c r="B1002" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1002" t="str">
+        <v/>
+      </c>
+      <c r="D1002" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1002" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F1002">
+        <v>11</v>
+      </c>
+      <c r="G1002" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1002" t="str">
+        <v>2025-08-30T02:29:56.583Z</v>
+      </c>
+      <c r="I1002" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="str">
+        <v>mexn983l-a20vbp</v>
+      </c>
+      <c r="B1003" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1003" t="str">
+        <v/>
+      </c>
+      <c r="D1003" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1003" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1003">
+        <v>0</v>
+      </c>
+      <c r="G1003" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1003" t="str">
+        <v>2025-08-30T02:30:08.010Z</v>
+      </c>
+      <c r="I1003" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="str">
+        <v>mexn9ahx-vw39bh</v>
+      </c>
+      <c r="B1004" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1004" t="str">
+        <v/>
+      </c>
+      <c r="D1004" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1004" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1004">
+        <v>4</v>
+      </c>
+      <c r="G1004" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1004" t="str">
+        <v>2025-08-30T02:30:11.103Z</v>
+      </c>
+      <c r="I1004" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="str">
+        <v>mexn9fmd-wtyyz5</v>
+      </c>
+      <c r="B1005" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1005" t="str">
+        <v/>
+      </c>
+      <c r="D1005" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1005" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F1005">
+        <v>8</v>
+      </c>
+      <c r="G1005" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1005" t="str">
+        <v>2025-08-30T02:30:17.747Z</v>
+      </c>
+      <c r="I1005" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="str">
+        <v>mexn9gpz-pjp5f2</v>
+      </c>
+      <c r="B1006" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1006" t="str">
+        <v/>
+      </c>
+      <c r="D1006" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1006" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1006">
+        <v>9</v>
+      </c>
+      <c r="G1006" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1006" t="str">
+        <v>2025-08-30T02:30:19.211Z</v>
+      </c>
+      <c r="I1006" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="str">
+        <v>mexn9h7t-b5wxnn</v>
+      </c>
+      <c r="B1007" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C1007" t="str">
+        <v/>
+      </c>
+      <c r="D1007" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1007" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F1007">
+        <v>9</v>
+      </c>
+      <c r="G1007" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1007" t="str">
+        <v>2025-08-30T02:30:19.825Z</v>
+      </c>
+      <c r="I1007" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="str">
+        <v>mexn9hng-7xkeru</v>
+      </c>
+      <c r="B1008" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C1008" t="str">
+        <v/>
+      </c>
+      <c r="D1008" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1008" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1008">
+        <v>9</v>
+      </c>
+      <c r="G1008" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1008" t="str">
+        <v>2025-08-30T02:30:20.402Z</v>
+      </c>
+      <c r="I1008" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="str">
+        <v>mexn9vx9-jtcpft</v>
+      </c>
+      <c r="B1009" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C1009" t="str">
+        <v/>
+      </c>
+      <c r="D1009" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1009" t="str">
+        <v>complete</v>
+      </c>
+      <c r="F1009">
+        <v>15</v>
+      </c>
+      <c r="G1009" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1009" t="str">
+        <v>2025-08-30T02:30:38.856Z</v>
+      </c>
+      <c r="I1009" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="str">
+        <v>mexnd2vb-9i8kaf</v>
+      </c>
+      <c r="B1010" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1010" t="str">
+        <v/>
+      </c>
+      <c r="D1010" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1010" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
+      </c>
+      <c r="G1010" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1010" t="str">
+        <v>2025-08-30T02:33:07.781Z</v>
+      </c>
+      <c r="I1010" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="str">
+        <v>mexndbji-dtri3v</v>
+      </c>
+      <c r="B1011" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1011" t="str">
+        <v/>
+      </c>
+      <c r="D1011" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1011" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1011">
+        <v>7</v>
+      </c>
+      <c r="G1011" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1011" t="str">
+        <v>2025-08-30T02:33:19.091Z</v>
+      </c>
+      <c r="I1011" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="str">
+        <v>mexndft4-634ydz</v>
+      </c>
+      <c r="B1012" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1012" t="str">
+        <v/>
+      </c>
+      <c r="D1012" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1012" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1012">
+        <v>0</v>
+      </c>
+      <c r="G1012" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1012" t="str">
+        <v>2025-08-30T02:33:23.382Z</v>
+      </c>
+      <c r="I1012" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="str">
+        <v>mexndjw1-tbfv3z</v>
+      </c>
+      <c r="B1013" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1013" t="str">
+        <v/>
+      </c>
+      <c r="D1013" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1013" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1013">
+        <v>0</v>
+      </c>
+      <c r="G1013" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1013" t="str">
+        <v>2025-08-30T02:33:29.922Z</v>
+      </c>
+      <c r="I1013" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="str">
+        <v>mexndkyk-i4l9qo</v>
+      </c>
+      <c r="B1014" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C1014" t="str">
+        <v/>
+      </c>
+      <c r="D1014" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1014" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1014">
+        <v>0</v>
+      </c>
+      <c r="G1014" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1014" t="str">
+        <v>2025-08-30T02:33:31.320Z</v>
+      </c>
+      <c r="I1014" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="str">
+        <v>mexndlkj-hv6el2</v>
+      </c>
+      <c r="B1015" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1015" t="str">
+        <v/>
+      </c>
+      <c r="D1015" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1015" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1015">
+        <v>8</v>
+      </c>
+      <c r="G1015" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1015" t="str">
+        <v>2025-08-30T02:33:32.033Z</v>
+      </c>
+      <c r="I1015" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="str">
+        <v>mexndm9t-nvxyzz</v>
+      </c>
+      <c r="B1016" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C1016" t="str">
+        <v/>
+      </c>
+      <c r="D1016" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1016" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1016">
+        <v>0</v>
+      </c>
+      <c r="G1016" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1016" t="str">
+        <v>2025-08-30T02:33:33.039Z</v>
+      </c>
+      <c r="I1016" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="str">
+        <v>mexndxmx-jkekrn</v>
+      </c>
+      <c r="B1017" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1017" t="str">
+        <v/>
+      </c>
+      <c r="D1017" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1017" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1017">
+        <v>0</v>
+      </c>
+      <c r="G1017" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1017" t="str">
+        <v>2025-08-30T02:33:47.764Z</v>
+      </c>
+      <c r="I1017" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="str">
+        <v>mexnedyk-4r8sl1</v>
+      </c>
+      <c r="B1018" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1018" t="str">
+        <v/>
+      </c>
+      <c r="D1018" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1018" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1018">
+        <v>17</v>
+      </c>
+      <c r="G1018" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1018" t="str">
+        <v>2025-08-30T02:34:08.813Z</v>
+      </c>
+      <c r="I1018" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="str">
+        <v>mexnetok-fijgdz</v>
+      </c>
+      <c r="B1019" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C1019" t="str">
+        <v/>
+      </c>
+      <c r="D1019" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1019" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1019">
+        <v>0</v>
+      </c>
+      <c r="G1019" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1019" t="str">
+        <v>2025-08-30T02:34:29.188Z</v>
+      </c>
+      <c r="I1019" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="str">
+        <v>mexneu8o-udttf9</v>
+      </c>
+      <c r="B1020" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1020" t="str">
+        <v/>
+      </c>
+      <c r="D1020" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1020" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1020">
+        <v>19</v>
+      </c>
+      <c r="G1020" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1020" t="str">
+        <v>2025-08-30T02:34:29.979Z</v>
+      </c>
+      <c r="I1020" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="str">
+        <v>mexneuqq-osltjw</v>
+      </c>
+      <c r="B1021" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C1021" t="str">
+        <v/>
+      </c>
+      <c r="D1021" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1021" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1021">
+        <v>0</v>
+      </c>
+      <c r="G1021" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1021" t="str">
+        <v>2025-08-30T02:34:30.627Z</v>
+      </c>
+      <c r="I1021" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="str">
+        <v>mexnezq4-b1pc4b</v>
+      </c>
+      <c r="B1022" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C1022" t="str">
+        <v/>
+      </c>
+      <c r="D1022" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1022" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1022">
+        <v>11</v>
+      </c>
+      <c r="G1022" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1022" t="str">
+        <v>2025-08-30T02:34:36.888Z</v>
+      </c>
+      <c r="I1022" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="str">
+        <v>mexnf0km-izqhnp</v>
+      </c>
+      <c r="B1023" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1023" t="str">
+        <v/>
+      </c>
+      <c r="D1023" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1023" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1023">
+        <v>0</v>
+      </c>
+      <c r="G1023" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1023" t="str">
+        <v>2025-08-30T02:34:38.191Z</v>
+      </c>
+      <c r="I1023" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="str">
+        <v>mexnf1ze-6iujyr</v>
+      </c>
+      <c r="B1024" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1024" t="str">
+        <v/>
+      </c>
+      <c r="D1024" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1024" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1024">
+        <v>0</v>
+      </c>
+      <c r="G1024" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1024" t="str">
+        <v>2025-08-30T02:34:39.954Z</v>
+      </c>
+      <c r="I1024" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="str">
+        <v>mexnf44w-a1lxvm</v>
+      </c>
+      <c r="B1025" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1025" t="str">
+        <v/>
+      </c>
+      <c r="D1025" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1025" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1025">
+        <v>4</v>
+      </c>
+      <c r="G1025" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1025" t="str">
+        <v>2025-08-30T02:34:42.762Z</v>
+      </c>
+      <c r="I1025" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="str">
+        <v>mexnf4w6-lna97y</v>
+      </c>
+      <c r="B1026" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1026" t="str">
+        <v/>
+      </c>
+      <c r="D1026" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1026" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1026">
+        <v>4</v>
+      </c>
+      <c r="G1026" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1026" t="str">
+        <v>2025-08-30T02:34:43.781Z</v>
+      </c>
+      <c r="I1026" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="str">
+        <v>mexnf6j6-99gjha</v>
+      </c>
+      <c r="B1027" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1027" t="str">
+        <v/>
+      </c>
+      <c r="D1027" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1027" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F1027">
+        <v>8</v>
+      </c>
+      <c r="G1027" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1027" t="str">
+        <v>2025-08-30T02:34:45.927Z</v>
+      </c>
+      <c r="I1027" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="str">
+        <v>mexnf8o9-ozjplu</v>
+      </c>
+      <c r="B1028" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1028" t="str">
+        <v/>
+      </c>
+      <c r="D1028" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1028" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F1028">
+        <v>11</v>
+      </c>
+      <c r="G1028" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1028" t="str">
+        <v>2025-08-30T02:34:48.657Z</v>
+      </c>
+      <c r="I1028" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="str">
+        <v>mexnfbhn-xe1u53</v>
+      </c>
+      <c r="B1029" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C1029" t="str">
+        <v/>
+      </c>
+      <c r="D1029" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1029" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1029">
+        <v>12</v>
+      </c>
+      <c r="G1029" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1029" t="str">
+        <v>2025-08-30T02:34:52.173Z</v>
+      </c>
+      <c r="I1029" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="str">
+        <v>mexnfi6b-2mujjh</v>
+      </c>
+      <c r="B1030" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C1030" t="str">
+        <v/>
+      </c>
+      <c r="D1030" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1030" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1030" t="str">
+        <v>2025-08-30T02:35:01.010Z</v>
+      </c>
+      <c r="I1030" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="str">
+        <v>mexnfjn3-gf43h5</v>
+      </c>
+      <c r="B1031" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C1031" t="str">
+        <v/>
+      </c>
+      <c r="D1031" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1031" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1031">
+        <v>0</v>
+      </c>
+      <c r="G1031" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1031" t="str">
+        <v>2025-08-30T02:35:02.808Z</v>
+      </c>
+      <c r="I1031" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="str">
+        <v>mexnfqsu-vme70h</v>
+      </c>
+      <c r="B1032" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C1032" t="str">
+        <v/>
+      </c>
+      <c r="D1032" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1032" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1032">
+        <v>12</v>
+      </c>
+      <c r="G1032" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1032" t="str">
+        <v>2025-08-30T02:35:12.062Z</v>
+      </c>
+      <c r="I1032" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="str">
+        <v>mexnfro8-js2gil</v>
+      </c>
+      <c r="B1033" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1033" t="str">
+        <v/>
+      </c>
+      <c r="D1033" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1033" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1033">
+        <v>0</v>
+      </c>
+      <c r="G1033" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1033" t="str">
+        <v>2025-08-30T02:35:13.305Z</v>
+      </c>
+      <c r="I1033" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="str">
+        <v>mexnfsf7-cnfvz0</v>
+      </c>
+      <c r="B1034" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1034" t="str">
+        <v/>
+      </c>
+      <c r="D1034" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1034" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1034">
+        <v>0</v>
+      </c>
+      <c r="G1034" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1034" t="str">
+        <v>2025-08-30T02:35:14.174Z</v>
+      </c>
+      <c r="I1034" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="str">
+        <v>mexng082-xkizxn</v>
+      </c>
+      <c r="B1035" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C1035" t="str">
+        <v/>
+      </c>
+      <c r="D1035" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1035" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1035">
+        <v>9</v>
+      </c>
+      <c r="G1035" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1035" t="str">
+        <v>2025-08-30T02:35:24.362Z</v>
+      </c>
+      <c r="I1035" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="str">
+        <v>mexng0ud-y70sy7</v>
+      </c>
+      <c r="B1036" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C1036" t="str">
+        <v/>
+      </c>
+      <c r="D1036" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1036" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1036">
+        <v>0</v>
+      </c>
+      <c r="G1036" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1036" t="str">
+        <v>2025-08-30T02:35:25.222Z</v>
+      </c>
+      <c r="I1036" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="str">
+        <v>mexng3lz-ka7ihe</v>
+      </c>
+      <c r="B1037" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C1037" t="str">
+        <v/>
+      </c>
+      <c r="D1037" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1037" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1037" t="str">
+        <v>2025-08-30T02:35:28.724Z</v>
+      </c>
+      <c r="I1037" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="str">
+        <v>mexng8f4-u3ray1</v>
+      </c>
+      <c r="B1038" t="str">
+        <v>img_https://picsum.photos/seed/isn4/800/450</v>
+      </c>
+      <c r="C1038" t="str">
+        <v/>
+      </c>
+      <c r="D1038" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1038" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1038">
+        <v>0</v>
+      </c>
+      <c r="G1038" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1038" t="str">
+        <v>2025-08-30T02:35:34.949Z</v>
+      </c>
+      <c r="I1038" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="str">
+        <v>mexngb1r-nmuquf</v>
+      </c>
+      <c r="B1039" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C1039" t="str">
+        <v/>
+      </c>
+      <c r="D1039" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1039" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1039">
+        <v>0</v>
+      </c>
+      <c r="G1039" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1039" t="str">
+        <v>2025-08-30T02:35:37.847Z</v>
+      </c>
+      <c r="I1039" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="str">
+        <v>mexnh0sc-v2hfo4</v>
+      </c>
+      <c r="B1040" t="str">
+        <v>img_https://picsum.photos/seed/isn4/800/450</v>
+      </c>
+      <c r="C1040" t="str">
+        <v/>
+      </c>
+      <c r="D1040" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1040" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1040">
+        <v>13</v>
+      </c>
+      <c r="G1040" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1040" t="str">
+        <v>2025-08-30T02:36:11.690Z</v>
+      </c>
+      <c r="I1040" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="str">
+        <v>mexnh3v2-7ynmwk</v>
+      </c>
+      <c r="B1041" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C1041" t="str">
+        <v/>
+      </c>
+      <c r="D1041" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1041" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1041" t="str">
+        <v>2025-08-30T02:36:15.731Z</v>
+      </c>
+      <c r="I1041" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="str">
+        <v>mexnh9se-xuv3jh</v>
+      </c>
+      <c r="B1042" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C1042" t="str">
+        <v/>
+      </c>
+      <c r="D1042" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1042" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1042">
+        <v>6</v>
+      </c>
+      <c r="G1042" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1042" t="str">
+        <v>2025-08-30T02:36:23.308Z</v>
+      </c>
+      <c r="I1042" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="str">
+        <v>mexnhd2e-owy51i</v>
+      </c>
+      <c r="B1043" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C1043" t="str">
+        <v/>
+      </c>
+      <c r="D1043" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1043" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1043">
+        <v>0</v>
+      </c>
+      <c r="G1043" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1043" t="str">
+        <v>2025-08-30T02:36:27.543Z</v>
+      </c>
+      <c r="I1043" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="str">
+        <v>mexnhlui-bfzlxg</v>
+      </c>
+      <c r="B1044" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C1044" t="str">
+        <v/>
+      </c>
+      <c r="D1044" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1044" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1044">
+        <v>13</v>
+      </c>
+      <c r="G1044" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1044" t="str">
+        <v>2025-08-30T02:36:39.064Z</v>
+      </c>
+      <c r="I1044" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="str">
+        <v>mexnho7c-2cv8mq</v>
+      </c>
+      <c r="B1045" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C1045" t="str">
+        <v/>
+      </c>
+      <c r="D1045" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1045" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1045">
+        <v>10</v>
+      </c>
+      <c r="G1045" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1045" t="str">
+        <v>2025-08-30T02:36:42.137Z</v>
+      </c>
+      <c r="I1045" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="str">
+        <v>mexnhs6s-98zfcm</v>
+      </c>
+      <c r="B1046" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1046" t="str">
+        <v/>
+      </c>
+      <c r="D1046" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1046" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1046">
+        <v>0</v>
+      </c>
+      <c r="G1046" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1046" t="str">
+        <v>2025-08-30T02:36:47.242Z</v>
+      </c>
+      <c r="I1046" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="str">
+        <v>mexnhtix-2tmovg</v>
+      </c>
+      <c r="B1047" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1047" t="str">
+        <v/>
+      </c>
+      <c r="D1047" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1047" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1047">
+        <v>10</v>
+      </c>
+      <c r="G1047" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1047" t="str">
+        <v>2025-08-30T02:36:48.972Z</v>
+      </c>
+      <c r="I1047" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="str">
+        <v>mexnhwab-qjp6qm</v>
+      </c>
+      <c r="B1048" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1048" t="str">
+        <v/>
+      </c>
+      <c r="D1048" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1048" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F1048">
+        <v>8</v>
+      </c>
+      <c r="G1048" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1048" t="str">
+        <v>2025-08-30T02:36:52.502Z</v>
+      </c>
+      <c r="I1048" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="str">
+        <v>mexnhzjv-wmrpia</v>
+      </c>
+      <c r="B1049" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C1049" t="str">
+        <v/>
+      </c>
+      <c r="D1049" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1049" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1049">
+        <v>0</v>
+      </c>
+      <c r="G1049" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1049" t="str">
+        <v>2025-08-30T02:36:56.854Z</v>
+      </c>
+      <c r="I1049" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="str">
+        <v>mexni4lt-pwukr9</v>
+      </c>
+      <c r="B1050" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C1050" t="str">
+        <v/>
+      </c>
+      <c r="D1050" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1050" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1050">
+        <v>4</v>
+      </c>
+      <c r="G1050" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1050" t="str">
+        <v>2025-08-30T02:37:03.399Z</v>
+      </c>
+      <c r="I1050" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="str">
+        <v>mexni7k9-njkwiw</v>
+      </c>
+      <c r="B1051" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1051" t="str">
+        <v/>
+      </c>
+      <c r="D1051" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1051" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1051">
+        <v>0</v>
+      </c>
+      <c r="G1051" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1051" t="str">
+        <v>2025-08-30T02:37:07.237Z</v>
+      </c>
+      <c r="I1051" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="str">
+        <v>mexni9j1-q5dztp</v>
+      </c>
+      <c r="B1052" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1052" t="str">
+        <v/>
+      </c>
+      <c r="D1052" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1052" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1052">
+        <v>4</v>
+      </c>
+      <c r="G1052" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1052" t="str">
+        <v>2025-08-30T02:37:09.785Z</v>
+      </c>
+      <c r="I1052" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="str">
+        <v>mexnia2u-ba5ly7</v>
+      </c>
+      <c r="B1053" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1053" t="str">
+        <v/>
+      </c>
+      <c r="D1053" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1053" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1053">
+        <v>0</v>
+      </c>
+      <c r="G1053" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1053" t="str">
+        <v>2025-08-30T02:37:10.504Z</v>
+      </c>
+      <c r="I1053" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="str">
+        <v>mexniamp-4mwmbt</v>
+      </c>
+      <c r="B1054" t="str">
+        <v>vid_SampleVideo_1280x720_1mb.mp4</v>
+      </c>
+      <c r="C1054" t="str">
+        <v/>
+      </c>
+      <c r="D1054" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1054" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1054">
+        <v>9</v>
+      </c>
+      <c r="G1054" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1054" t="str">
+        <v>2025-08-30T02:37:11.224Z</v>
+      </c>
+      <c r="I1054" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="str">
+        <v>mexnibmw-qe6uog</v>
+      </c>
+      <c r="B1055" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1055" t="str">
+        <v/>
+      </c>
+      <c r="D1055" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1055" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F1055">
+        <v>8</v>
+      </c>
+      <c r="G1055" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1055" t="str">
+        <v>2025-08-30T02:37:12.467Z</v>
+      </c>
+      <c r="I1055" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="str">
+        <v>mexnidah-dyxao6</v>
+      </c>
+      <c r="B1056" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C1056" t="str">
+        <v/>
+      </c>
+      <c r="D1056" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1056" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1056">
+        <v>8</v>
+      </c>
+      <c r="G1056" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1056" t="str">
+        <v>2025-08-30T02:37:14.642Z</v>
+      </c>
+      <c r="I1056" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="str">
+        <v>mexnidxi-boboxa</v>
+      </c>
+      <c r="B1057" t="str">
+        <v>vid_Sintel.mp4</v>
+      </c>
+      <c r="C1057" t="str">
+        <v/>
+      </c>
+      <c r="D1057" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1057" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1057" t="str">
+        <v>2025-08-30T02:37:15.498Z</v>
+      </c>
+      <c r="I1057" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="str">
+        <v>mexnies5-0kl2zu</v>
+      </c>
+      <c r="B1058" t="str">
+        <v>vid_Sintel.mp4</v>
+      </c>
+      <c r="C1058" t="str">
+        <v/>
+      </c>
+      <c r="D1058" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1058" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1058">
+        <v>0</v>
+      </c>
+      <c r="G1058" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1058" t="str">
+        <v>2025-08-30T02:37:16.585Z</v>
+      </c>
+      <c r="I1058" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="str">
+        <v>mexnj1yj-wttxzt</v>
+      </c>
+      <c r="B1059" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C1059" t="str">
+        <v/>
+      </c>
+      <c r="D1059" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1059" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1059">
+        <v>0</v>
+      </c>
+      <c r="G1059" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1059" t="str">
+        <v>2025-08-30T02:37:46.535Z</v>
+      </c>
+      <c r="I1059" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="str">
+        <v>mexnj4z4-cqml6u</v>
+      </c>
+      <c r="B1060" t="str">
+        <v>img_https://picsum.photos/seed/isn3/800/450</v>
+      </c>
+      <c r="C1060" t="str">
+        <v/>
+      </c>
+      <c r="D1060" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1060" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1060">
+        <v>12</v>
+      </c>
+      <c r="G1060" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1060" t="str">
+        <v>2025-08-30T02:37:50.133Z</v>
+      </c>
+      <c r="I1060" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="str">
+        <v>mexnj7ch-6xpnzn</v>
+      </c>
+      <c r="B1061" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C1061" t="str">
+        <v/>
+      </c>
+      <c r="D1061" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1061" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1061">
+        <v>0</v>
+      </c>
+      <c r="G1061" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1061" t="str">
+        <v>2025-08-30T02:37:53.620Z</v>
+      </c>
+      <c r="I1061" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="str">
+        <v>mexnji36-ghz037</v>
+      </c>
+      <c r="B1062" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C1062" t="str">
+        <v/>
+      </c>
+      <c r="D1062" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1062" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F1062">
+        <v>4</v>
+      </c>
+      <c r="G1062" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1062" t="str">
+        <v>2025-08-30T02:38:07.533Z</v>
+      </c>
+      <c r="I1062" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="str">
+        <v>mexnjqum-gurcas</v>
+      </c>
+      <c r="B1063" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1063" t="str">
+        <v/>
+      </c>
+      <c r="D1063" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1063" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1063">
+        <v>0</v>
+      </c>
+      <c r="G1063" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1063" t="str">
+        <v>2025-08-30T02:38:18.802Z</v>
+      </c>
+      <c r="I1063" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="str">
+        <v>mexnjs9b-6zfb7p</v>
+      </c>
+      <c r="B1064" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1064" t="str">
+        <v/>
+      </c>
+      <c r="D1064" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1064" t="str">
+        <v>view</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1064" t="str">
+        <v>2025-08-30T02:38:20.711Z</v>
+      </c>
+      <c r="I1064" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="str">
+        <v>mexnjsr7-8vgzvj</v>
+      </c>
+      <c r="B1065" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C1065" t="str">
+        <v/>
+      </c>
+      <c r="D1065" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1065" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1065">
+        <v>10</v>
+      </c>
+      <c r="G1065" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1065" t="str">
+        <v>2025-08-30T02:38:21.366Z</v>
+      </c>
+      <c r="I1065" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="str">
+        <v>mexnjtcu-jjwc0g</v>
+      </c>
+      <c r="B1066" t="str">
+        <v>vid_TearsOfSteel.mp4</v>
+      </c>
+      <c r="C1066" t="str">
+        <v/>
+      </c>
+      <c r="D1066" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1066" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
+      </c>
+      <c r="G1066" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1066" t="str">
+        <v>2025-08-30T02:38:22.090Z</v>
+      </c>
+      <c r="I1066" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="str">
+        <v>mexnjxef-av6qn3</v>
+      </c>
+      <c r="B1067" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C1067" t="str">
+        <v/>
+      </c>
+      <c r="D1067" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1067" t="str">
+        <v>skip</v>
+      </c>
+      <c r="F1067">
+        <v>10</v>
+      </c>
+      <c r="G1067" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1067" t="str">
+        <v>2025-08-30T02:38:27.310Z</v>
+      </c>
+      <c r="I1067" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="str">
+        <v>mexnk7qe-hwn1wn</v>
+      </c>
+      <c r="B1068" t="str">
+        <v>unknown-ad</v>
+      </c>
+      <c r="C1068" t="str">
+        <v/>
+      </c>
+      <c r="D1068" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E1068" t="str">
+        <v>click</v>
+      </c>
+      <c r="F1068">
+        <v>16</v>
+      </c>
+      <c r="G1068" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H1068" t="str">
+        <v>2025-08-30T02:38:40.692Z</v>
+      </c>
+      <c r="I1068" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S897"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S1068"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logins.xlsx
+++ b/logins.xlsx
@@ -8446,7 +8446,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S897"/>
+  <dimension ref="A1:S929"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34614,9 +34614,937 @@
         <v/>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" t="str">
+        <v>mexpjwzo-ro43d3</v>
+      </c>
+      <c r="B898" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C898" t="str">
+        <v/>
+      </c>
+      <c r="D898" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E898" t="str">
+        <v>view</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H898" t="str">
+        <v>2025-08-30T03:34:26.071Z</v>
+      </c>
+      <c r="I898" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="str">
+        <v>mexpjzh3-fjnfnh</v>
+      </c>
+      <c r="B899" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C899" t="str">
+        <v/>
+      </c>
+      <c r="D899" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E899" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F899">
+        <v>4</v>
+      </c>
+      <c r="G899" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H899" t="str">
+        <v>2025-08-30T03:34:29.288Z</v>
+      </c>
+      <c r="I899" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="str">
+        <v>mexpk2b1-03ow7g</v>
+      </c>
+      <c r="B900" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C900" t="str">
+        <v/>
+      </c>
+      <c r="D900" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E900" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F900">
+        <v>8</v>
+      </c>
+      <c r="G900" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H900" t="str">
+        <v>2025-08-30T03:34:32.998Z</v>
+      </c>
+      <c r="I900" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="str">
+        <v>mexpk58v-woree9</v>
+      </c>
+      <c r="B901" t="str">
+        <v>vid_ForBiggerEscapes.mp4</v>
+      </c>
+      <c r="C901" t="str">
+        <v/>
+      </c>
+      <c r="D901" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E901" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F901">
+        <v>11</v>
+      </c>
+      <c r="G901" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H901" t="str">
+        <v>2025-08-30T03:34:36.807Z</v>
+      </c>
+      <c r="I901" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="str">
+        <v>mexpkd1h-d8r7fw</v>
+      </c>
+      <c r="B902" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C902" t="str">
+        <v/>
+      </c>
+      <c r="D902" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E902" t="str">
+        <v>view</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H902" t="str">
+        <v>2025-08-30T03:34:46.897Z</v>
+      </c>
+      <c r="I902" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="str">
+        <v>mexpvqx9-7b4ivr</v>
+      </c>
+      <c r="B903" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C903" t="str">
+        <v/>
+      </c>
+      <c r="D903" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E903" t="str">
+        <v>view</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+      <c r="G903" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H903" t="str">
+        <v>2025-08-30T03:43:37.876Z</v>
+      </c>
+      <c r="I903" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="str">
+        <v>mexpw15m-fihfr2</v>
+      </c>
+      <c r="B904" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C904" t="str">
+        <v/>
+      </c>
+      <c r="D904" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E904" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F904">
+        <v>8</v>
+      </c>
+      <c r="G904" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H904" t="str">
+        <v>2025-08-30T03:43:50.907Z</v>
+      </c>
+      <c r="I904" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="str">
+        <v>mexpw8m8-ofj1v3</v>
+      </c>
+      <c r="B905" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C905" t="str">
+        <v/>
+      </c>
+      <c r="D905" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E905" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F905">
+        <v>11</v>
+      </c>
+      <c r="G905" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H905" t="str">
+        <v>2025-08-30T03:44:00.956Z</v>
+      </c>
+      <c r="I905" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="str">
+        <v>mexpwg1n-r8yw7k</v>
+      </c>
+      <c r="B906" t="str">
+        <v>vid_Sintel.mp4</v>
+      </c>
+      <c r="C906" t="str">
+        <v/>
+      </c>
+      <c r="D906" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E906" t="str">
+        <v>view</v>
+      </c>
+      <c r="F906">
+        <v>0</v>
+      </c>
+      <c r="G906" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H906" t="str">
+        <v>2025-08-30T03:44:10.563Z</v>
+      </c>
+      <c r="I906" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="str">
+        <v>mexq2thb-relnxq</v>
+      </c>
+      <c r="B907" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C907" t="str">
+        <v/>
+      </c>
+      <c r="D907" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E907" t="str">
+        <v>view</v>
+      </c>
+      <c r="F907">
+        <v>0</v>
+      </c>
+      <c r="G907" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H907" t="str">
+        <v>2025-08-30T03:49:08.009Z</v>
+      </c>
+      <c r="I907" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="str">
+        <v>mexq5ju8-zjhmsn</v>
+      </c>
+      <c r="B908" t="str">
+        <v>vid_ForBiggerFun.mp4</v>
+      </c>
+      <c r="C908" t="str">
+        <v/>
+      </c>
+      <c r="D908" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E908" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F908">
+        <v>15</v>
+      </c>
+      <c r="G908" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H908" t="str">
+        <v>2025-08-30T03:51:15.476Z</v>
+      </c>
+      <c r="I908" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="str">
+        <v>mexq5p06-cvgl1h</v>
+      </c>
+      <c r="B909" t="str">
+        <v>vid_ElephantsDream.mp4</v>
+      </c>
+      <c r="C909" t="str">
+        <v/>
+      </c>
+      <c r="D909" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E909" t="str">
+        <v>view</v>
+      </c>
+      <c r="F909">
+        <v>0</v>
+      </c>
+      <c r="G909" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H909" t="str">
+        <v>2025-08-30T03:51:22.158Z</v>
+      </c>
+      <c r="I909" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="str">
+        <v>mexq6ink-58zywu</v>
+      </c>
+      <c r="B910" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C910" t="str">
+        <v/>
+      </c>
+      <c r="D910" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E910" t="str">
+        <v>view</v>
+      </c>
+      <c r="F910">
+        <v>0</v>
+      </c>
+      <c r="G910" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H910" t="str">
+        <v>2025-08-30T03:52:00.612Z</v>
+      </c>
+      <c r="I910" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="str">
+        <v>mexq6mue-2mkeuk</v>
+      </c>
+      <c r="B911" t="str">
+        <v>vid_sample-mp4-file.mp4</v>
+      </c>
+      <c r="C911" t="str">
+        <v/>
+      </c>
+      <c r="D911" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E911" t="str">
+        <v>view</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H911" t="str">
+        <v>2025-08-30T03:52:06.042Z</v>
+      </c>
+      <c r="I911" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="str">
+        <v>mexqbocx-haisw3</v>
+      </c>
+      <c r="B912" t="str">
+        <v>vid_SubaruOutbackOnStreetAndDirt.mp4</v>
+      </c>
+      <c r="C912" t="str">
+        <v/>
+      </c>
+      <c r="D912" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E912" t="str">
+        <v>view</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H912" t="str">
+        <v>2025-08-30T03:56:01.242Z</v>
+      </c>
+      <c r="I912" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="str">
+        <v>mexqbp0u-l3dvb8</v>
+      </c>
+      <c r="B913" t="str">
+        <v>img_https://picsum.photos/seed/isn1/800/450</v>
+      </c>
+      <c r="C913" t="str">
+        <v/>
+      </c>
+      <c r="D913" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E913" t="str">
+        <v>view</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H913" t="str">
+        <v>2025-08-30T03:56:02.114Z</v>
+      </c>
+      <c r="I913" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="str">
+        <v>mexqh9k9-enssc3</v>
+      </c>
+      <c r="B914" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C914" t="str">
+        <v/>
+      </c>
+      <c r="D914" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E914" t="str">
+        <v>view</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H914" t="str">
+        <v>2025-08-30T04:00:22.001Z</v>
+      </c>
+      <c r="I914" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="str">
+        <v>mexqhb61-2inuap</v>
+      </c>
+      <c r="B915" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C915" t="str">
+        <v/>
+      </c>
+      <c r="D915" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E915" t="str">
+        <v>click</v>
+      </c>
+      <c r="F915">
+        <v>4</v>
+      </c>
+      <c r="G915" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H915" t="str">
+        <v>2025-08-30T04:00:23.992Z</v>
+      </c>
+      <c r="I915" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="str">
+        <v>mexqhcm8-hqzg3n</v>
+      </c>
+      <c r="B916" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C916" t="str">
+        <v/>
+      </c>
+      <c r="D916" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E916" t="str">
+        <v>click</v>
+      </c>
+      <c r="F916">
+        <v>7</v>
+      </c>
+      <c r="G916" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H916" t="str">
+        <v>2025-08-30T04:00:25.970Z</v>
+      </c>
+      <c r="I916" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="str">
+        <v>mexqhfuu-9jt2c7</v>
+      </c>
+      <c r="B917" t="str">
+        <v>vid_BigBuckBunny.mp4</v>
+      </c>
+      <c r="C917" t="str">
+        <v/>
+      </c>
+      <c r="D917" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E917" t="str">
+        <v>click</v>
+      </c>
+      <c r="F917">
+        <v>8</v>
+      </c>
+      <c r="G917" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H917" t="str">
+        <v>2025-08-30T04:00:30.118Z</v>
+      </c>
+      <c r="I917" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="str">
+        <v>mexqmfif-lxg1x3</v>
+      </c>
+      <c r="B918" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C918" t="str">
+        <v/>
+      </c>
+      <c r="D918" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E918" t="str">
+        <v>view</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H918" t="str">
+        <v>2025-08-30T04:04:23.033Z</v>
+      </c>
+      <c r="I918" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="str">
+        <v>mexqmibe-l5o1ab</v>
+      </c>
+      <c r="B919" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C919" t="str">
+        <v/>
+      </c>
+      <c r="D919" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E919" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F919">
+        <v>4</v>
+      </c>
+      <c r="G919" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H919" t="str">
+        <v>2025-08-30T04:04:26.653Z</v>
+      </c>
+      <c r="I919" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="str">
+        <v>mexqmlhq-1pyf69</v>
+      </c>
+      <c r="B920" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C920" t="str">
+        <v/>
+      </c>
+      <c r="D920" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E920" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F920">
+        <v>8</v>
+      </c>
+      <c r="G920" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H920" t="str">
+        <v>2025-08-30T04:04:30.729Z</v>
+      </c>
+      <c r="I920" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="str">
+        <v>mexqmo6w-7xf80p</v>
+      </c>
+      <c r="B921" t="str">
+        <v>vid_ForBiggerJoyrides.mp4</v>
+      </c>
+      <c r="C921" t="str">
+        <v/>
+      </c>
+      <c r="D921" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E921" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F921">
+        <v>11</v>
+      </c>
+      <c r="G921" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H921" t="str">
+        <v>2025-08-30T04:04:34.263Z</v>
+      </c>
+      <c r="I921" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="str">
+        <v>mexqmunx-9zhf2y</v>
+      </c>
+      <c r="B922" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C922" t="str">
+        <v/>
+      </c>
+      <c r="D922" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E922" t="str">
+        <v>view</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H922" t="str">
+        <v>2025-08-30T04:04:42.623Z</v>
+      </c>
+      <c r="I922" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="str">
+        <v>mexqmwt8-61ex0h</v>
+      </c>
+      <c r="B923" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C923" t="str">
+        <v/>
+      </c>
+      <c r="D923" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E923" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F923">
+        <v>4</v>
+      </c>
+      <c r="G923" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H923" t="str">
+        <v>2025-08-30T04:04:45.415Z</v>
+      </c>
+      <c r="I923" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="str">
+        <v>mexqmzm6-m5u0uv</v>
+      </c>
+      <c r="B924" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C924" t="str">
+        <v/>
+      </c>
+      <c r="D924" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E924" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F924">
+        <v>8</v>
+      </c>
+      <c r="G924" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H924" t="str">
+        <v>2025-08-30T04:04:49.082Z</v>
+      </c>
+      <c r="I924" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="str">
+        <v>mexqn2lh-5i7615</v>
+      </c>
+      <c r="B925" t="str">
+        <v>vid_ForBiggerMeltdowns.mp4</v>
+      </c>
+      <c r="C925" t="str">
+        <v/>
+      </c>
+      <c r="D925" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E925" t="str">
+        <v>quartile75</v>
+      </c>
+      <c r="F925">
+        <v>11</v>
+      </c>
+      <c r="G925" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H925" t="str">
+        <v>2025-08-30T04:04:52.944Z</v>
+      </c>
+      <c r="I925" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="str">
+        <v>mexqn81t-3nqj0q</v>
+      </c>
+      <c r="B926" t="str">
+        <v>vid_9hAAACc2F2YQEAAAC4mFhYtAAPgAAAADAAcAVyAd2QXgBgAAA==</v>
+      </c>
+      <c r="C926" t="str">
+        <v/>
+      </c>
+      <c r="D926" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E926" t="str">
+        <v>view</v>
+      </c>
+      <c r="F926">
+        <v>0</v>
+      </c>
+      <c r="G926" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H926" t="str">
+        <v>2025-08-30T04:04:59.946Z</v>
+      </c>
+      <c r="I926" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="str">
+        <v>mexr35jx-p2cesw</v>
+      </c>
+      <c r="B927" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C927" t="str">
+        <v/>
+      </c>
+      <c r="D927" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E927" t="str">
+        <v>view</v>
+      </c>
+      <c r="F927">
+        <v>0</v>
+      </c>
+      <c r="G927" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H927" t="str">
+        <v>2025-08-30T04:17:23.256Z</v>
+      </c>
+      <c r="I927" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="str">
+        <v>mexr39y2-qq2wo5</v>
+      </c>
+      <c r="B928" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C928" t="str">
+        <v/>
+      </c>
+      <c r="D928" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E928" t="str">
+        <v>quartile25</v>
+      </c>
+      <c r="F928">
+        <v>4</v>
+      </c>
+      <c r="G928" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H928" t="str">
+        <v>2025-08-30T04:17:28.978Z</v>
+      </c>
+      <c r="I928" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="str">
+        <v>mexr3bav-pi9gob</v>
+      </c>
+      <c r="B929" t="str">
+        <v>vid_ForBiggerBlazes.mp4</v>
+      </c>
+      <c r="C929" t="str">
+        <v/>
+      </c>
+      <c r="D929" t="str">
+        <v>ce905211b3d0eac6a08ec8bd05a0eeb0</v>
+      </c>
+      <c r="E929" t="str">
+        <v>quartile50</v>
+      </c>
+      <c r="F929">
+        <v>8</v>
+      </c>
+      <c r="G929" t="str">
+        <v>1054894</v>
+      </c>
+      <c r="H929" t="str">
+        <v>2025-08-30T04:17:30.736Z</v>
+      </c>
+      <c r="I929" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S897"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S929"/>
   </ignoredErrors>
 </worksheet>
 </file>